--- a/HCA 201 Content Analysis Tracker.xlsx
+++ b/HCA 201 Content Analysis Tracker.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Synophic\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1E70A3-A07A-42F8-9A61-008599C02FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7830"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -148,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="283">
   <si>
     <t>S.No</t>
   </si>
@@ -994,12 +1000,15 @@
   </si>
   <si>
     <t>More Content needs to be added</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1188,24 +1197,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1224,7 +1216,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,6 +1243,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1496,12 +1508,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H244"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1542,7 +1554,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A2" s="26">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1555,8 +1567,8 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1574,13 +1586,13 @@
       <c r="G3" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="20" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="27"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1596,13 +1608,13 @@
       <c r="G4" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="20" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="27"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
@@ -1618,13 +1630,13 @@
       <c r="G5" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="20" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="27"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1642,8 +1654,8 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="27"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1661,8 +1673,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="27"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1680,8 +1692,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="27"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1699,8 +1711,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="27"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="9" t="s">
         <v>21</v>
       </c>
@@ -1718,8 +1730,8 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="27"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1732,8 +1744,8 @@
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="27"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1758,8 @@
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="27"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
@@ -1760,8 +1772,8 @@
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="27"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="9" t="s">
         <v>17</v>
       </c>
@@ -1772,8 +1784,8 @@
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="27"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1786,8 +1798,8 @@
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="27"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="9" t="s">
         <v>26</v>
       </c>
@@ -1800,8 +1812,8 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="27"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1816,8 +1828,8 @@
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="27"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="9" t="s">
         <v>29</v>
       </c>
@@ -1828,8 +1840,8 @@
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="27"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="9" t="s">
         <v>30</v>
       </c>
@@ -1840,8 +1852,8 @@
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="9" t="s">
         <v>31</v>
       </c>
@@ -1852,8 +1864,8 @@
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="9" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1876,8 @@
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="27"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="9" t="s">
         <v>33</v>
       </c>
@@ -1876,8 +1888,8 @@
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="27"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="9" t="s">
         <v>34</v>
       </c>
@@ -1888,8 +1900,8 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="27"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="9" t="s">
         <v>35</v>
       </c>
@@ -1900,8 +1912,8 @@
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="27"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -1914,8 +1926,8 @@
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="27"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="9" t="s">
         <v>38</v>
       </c>
@@ -1926,8 +1938,8 @@
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="27"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="9" t="s">
         <v>39</v>
       </c>
@@ -1938,8 +1950,8 @@
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="27"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="9" t="s">
         <v>40</v>
       </c>
@@ -1950,8 +1962,8 @@
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="27"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="9" t="s">
         <v>41</v>
       </c>
@@ -1962,8 +1974,8 @@
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="27"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="9" t="s">
         <v>42</v>
       </c>
@@ -1974,8 +1986,8 @@
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="27"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="9" t="s">
         <v>43</v>
       </c>
@@ -1986,8 +1998,8 @@
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="27"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="9" t="s">
         <v>44</v>
       </c>
@@ -1998,8 +2010,8 @@
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="27"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="9" t="s">
         <v>45</v>
       </c>
@@ -2010,8 +2022,8 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="27"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2024,8 +2036,8 @@
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="27"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="9" t="s">
         <v>48</v>
       </c>
@@ -2036,8 +2048,8 @@
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="27"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="9" t="s">
         <v>49</v>
       </c>
@@ -2048,8 +2060,8 @@
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="27"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="9" t="s">
         <v>50</v>
       </c>
@@ -2060,8 +2072,8 @@
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="27"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="9" t="s">
         <v>51</v>
       </c>
@@ -2072,8 +2084,8 @@
       <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="27"/>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="27" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -2086,8 +2098,8 @@
       <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="27"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="9" t="s">
         <v>54</v>
       </c>
@@ -2098,8 +2110,8 @@
       <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="27"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="9" t="s">
         <v>55</v>
       </c>
@@ -2110,8 +2122,8 @@
       <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="27"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="9" t="s">
         <v>56</v>
       </c>
@@ -2122,8 +2134,8 @@
       <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="27"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="9" t="s">
         <v>57</v>
       </c>
@@ -2134,8 +2146,8 @@
       <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="27"/>
-      <c r="B44" s="23" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="27" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -2148,8 +2160,8 @@
       <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="27"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="9" t="s">
         <v>60</v>
       </c>
@@ -2160,8 +2172,8 @@
       <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="27"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="9" t="s">
         <v>61</v>
       </c>
@@ -2172,8 +2184,8 @@
       <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="27"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="9" t="s">
         <v>62</v>
       </c>
@@ -2184,8 +2196,8 @@
       <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="27"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="9" t="s">
         <v>63</v>
       </c>
@@ -2195,9 +2207,9 @@
       <c r="E48" s="10"/>
       <c r="F48" s="18"/>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="27"/>
-      <c r="B49" s="24"/>
+    <row r="49" spans="1:9">
+      <c r="A49" s="22"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="9" t="s">
         <v>64</v>
       </c>
@@ -2207,9 +2219,9 @@
       <c r="E49" s="10"/>
       <c r="F49" s="18"/>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="27"/>
-      <c r="B50" s="24"/>
+    <row r="50" spans="1:9">
+      <c r="A50" s="22"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="9" t="s">
         <v>65</v>
       </c>
@@ -2219,9 +2231,9 @@
       <c r="E50" s="10"/>
       <c r="F50" s="18"/>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="27"/>
-      <c r="B51" s="25"/>
+    <row r="51" spans="1:9">
+      <c r="A51" s="22"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="9" t="s">
         <v>66</v>
       </c>
@@ -2231,9 +2243,9 @@
       <c r="E51" s="10"/>
       <c r="F51" s="18"/>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="27"/>
-      <c r="B52" s="23" t="s">
+    <row r="52" spans="1:9">
+      <c r="A52" s="22"/>
+      <c r="B52" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -2245,9 +2257,9 @@
       <c r="E52" s="10"/>
       <c r="F52" s="18"/>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="27"/>
-      <c r="B53" s="24"/>
+    <row r="53" spans="1:9">
+      <c r="A53" s="22"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="9" t="s">
         <v>68</v>
       </c>
@@ -2257,9 +2269,9 @@
       <c r="E53" s="10"/>
       <c r="F53" s="18"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="27"/>
-      <c r="B54" s="24"/>
+    <row r="54" spans="1:9">
+      <c r="A54" s="22"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="9" t="s">
         <v>69</v>
       </c>
@@ -2269,9 +2281,9 @@
       <c r="E54" s="10"/>
       <c r="F54" s="18"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="27"/>
-      <c r="B55" s="24"/>
+    <row r="55" spans="1:9">
+      <c r="A55" s="22"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="9" t="s">
         <v>70</v>
       </c>
@@ -2281,9 +2293,9 @@
       <c r="E55" s="10"/>
       <c r="F55" s="18"/>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="27"/>
-      <c r="B56" s="24"/>
+    <row r="56" spans="1:9">
+      <c r="A56" s="22"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="9" t="s">
         <v>71</v>
       </c>
@@ -2293,9 +2305,9 @@
       <c r="E56" s="10"/>
       <c r="F56" s="18"/>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="27"/>
-      <c r="B57" s="24"/>
+    <row r="57" spans="1:9">
+      <c r="A57" s="22"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="9" t="s">
         <v>72</v>
       </c>
@@ -2305,9 +2317,9 @@
       <c r="E57" s="10"/>
       <c r="F57" s="18"/>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="27"/>
-      <c r="B58" s="24"/>
+    <row r="58" spans="1:9">
+      <c r="A58" s="22"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="9" t="s">
         <v>73</v>
       </c>
@@ -2317,9 +2329,9 @@
       <c r="E58" s="10"/>
       <c r="F58" s="18"/>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="27"/>
-      <c r="B59" s="24"/>
+    <row r="59" spans="1:9">
+      <c r="A59" s="22"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="9" t="s">
         <v>74</v>
       </c>
@@ -2329,9 +2341,9 @@
       <c r="E59" s="10"/>
       <c r="F59" s="18"/>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="27"/>
-      <c r="B60" s="24"/>
+    <row r="60" spans="1:9">
+      <c r="A60" s="22"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="9" t="s">
         <v>75</v>
       </c>
@@ -2341,9 +2353,9 @@
       <c r="E60" s="10"/>
       <c r="F60" s="18"/>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="27"/>
-      <c r="B61" s="25"/>
+    <row r="61" spans="1:9">
+      <c r="A61" s="22"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="9" t="s">
         <v>76</v>
       </c>
@@ -2353,9 +2365,9 @@
       <c r="E61" s="10"/>
       <c r="F61" s="18"/>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="27"/>
-      <c r="B62" s="23" t="s">
+    <row r="62" spans="1:9">
+      <c r="A62" s="22"/>
+      <c r="B62" s="27" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="9" t="s">
@@ -2366,10 +2378,13 @@
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="27"/>
-      <c r="B63" s="24"/>
+      <c r="I62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="22"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="9" t="s">
         <v>80</v>
       </c>
@@ -2379,9 +2394,9 @@
       <c r="E63" s="10"/>
       <c r="F63" s="18"/>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="27"/>
-      <c r="B64" s="24"/>
+    <row r="64" spans="1:9">
+      <c r="A64" s="22"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="9" t="s">
         <v>81</v>
       </c>
@@ -2392,8 +2407,8 @@
       <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="27"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="9" t="s">
         <v>82</v>
       </c>
@@ -2404,8 +2419,8 @@
       <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="27"/>
-      <c r="B66" s="24"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="9" t="s">
         <v>83</v>
       </c>
@@ -2416,8 +2431,8 @@
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="27"/>
-      <c r="B67" s="24"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="9" t="s">
         <v>84</v>
       </c>
@@ -2428,8 +2443,8 @@
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="27"/>
-      <c r="B68" s="24"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="9" t="s">
         <v>85</v>
       </c>
@@ -2440,8 +2455,8 @@
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="27"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="9" t="s">
         <v>86</v>
       </c>
@@ -2452,8 +2467,8 @@
       <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="27"/>
-      <c r="B70" s="24"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="9" t="s">
         <v>87</v>
       </c>
@@ -2464,8 +2479,8 @@
       <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="27"/>
-      <c r="B71" s="24"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="9" t="s">
         <v>88</v>
       </c>
@@ -2476,8 +2491,8 @@
       <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="27"/>
-      <c r="B72" s="25"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="9" t="s">
         <v>89</v>
       </c>
@@ -2488,8 +2503,8 @@
       <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="27"/>
-      <c r="B73" s="23" t="s">
+      <c r="A73" s="22"/>
+      <c r="B73" s="27" t="s">
         <v>90</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -2502,8 +2517,8 @@
       <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="27"/>
-      <c r="B74" s="24"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="9" t="s">
         <v>92</v>
       </c>
@@ -2514,8 +2529,8 @@
       <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="27"/>
-      <c r="B75" s="24"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="9" t="s">
         <v>93</v>
       </c>
@@ -2526,8 +2541,8 @@
       <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="27"/>
-      <c r="B76" s="24"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="9" t="s">
         <v>94</v>
       </c>
@@ -2538,8 +2553,8 @@
       <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="27"/>
-      <c r="B77" s="24"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="9" t="s">
         <v>95</v>
       </c>
@@ -2550,8 +2565,8 @@
       <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="27"/>
-      <c r="B78" s="24"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="9" t="s">
         <v>96</v>
       </c>
@@ -2562,8 +2577,8 @@
       <c r="F78" s="18"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="27"/>
-      <c r="B79" s="24"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="9" t="s">
         <v>97</v>
       </c>
@@ -2574,8 +2589,8 @@
       <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="27"/>
-      <c r="B80" s="25"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="9" t="s">
         <v>98</v>
       </c>
@@ -2586,8 +2601,8 @@
       <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="27"/>
-      <c r="B81" s="23" t="s">
+      <c r="A81" s="22"/>
+      <c r="B81" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C81" s="9" t="s">
@@ -2600,8 +2615,8 @@
       <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="27"/>
-      <c r="B82" s="24"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="9" t="s">
         <v>101</v>
       </c>
@@ -2612,8 +2627,8 @@
       <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="27"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="9" t="s">
         <v>102</v>
       </c>
@@ -2624,8 +2639,8 @@
       <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="27"/>
-      <c r="B84" s="24"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="9" t="s">
         <v>103</v>
       </c>
@@ -2636,8 +2651,8 @@
       <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="27"/>
-      <c r="B85" s="24"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="9" t="s">
         <v>104</v>
       </c>
@@ -2648,8 +2663,8 @@
       <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="27"/>
-      <c r="B86" s="24"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="9" t="s">
         <v>105</v>
       </c>
@@ -2660,8 +2675,8 @@
       <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="27"/>
-      <c r="B87" s="24"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="9" t="s">
         <v>106</v>
       </c>
@@ -2674,8 +2689,8 @@
       <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="27"/>
-      <c r="B88" s="24"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="9" t="s">
         <v>107</v>
       </c>
@@ -2686,8 +2701,8 @@
       <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="27"/>
-      <c r="B89" s="24"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="9" t="s">
         <v>108</v>
       </c>
@@ -2698,8 +2713,8 @@
       <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="27"/>
-      <c r="B90" s="25"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="9" t="s">
         <v>109</v>
       </c>
@@ -2710,8 +2725,8 @@
       <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="27"/>
-      <c r="B91" s="23" t="s">
+      <c r="A91" s="22"/>
+      <c r="B91" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C91" s="9" t="s">
@@ -2726,8 +2741,8 @@
       <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="27"/>
-      <c r="B92" s="24"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="9" t="s">
         <v>112</v>
       </c>
@@ -2738,8 +2753,8 @@
       <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="27"/>
-      <c r="B93" s="24"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="9" t="s">
         <v>113</v>
       </c>
@@ -2750,8 +2765,8 @@
       <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="27"/>
-      <c r="B94" s="24"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="9" t="s">
         <v>114</v>
       </c>
@@ -2762,8 +2777,8 @@
       <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="27"/>
-      <c r="B95" s="24"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="28"/>
       <c r="C95" s="9" t="s">
         <v>115</v>
       </c>
@@ -2774,8 +2789,8 @@
       <c r="F95" s="18"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="27"/>
-      <c r="B96" s="24"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="9" t="s">
         <v>116</v>
       </c>
@@ -2786,8 +2801,8 @@
       <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="27"/>
-      <c r="B97" s="24"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="9" t="s">
         <v>117</v>
       </c>
@@ -2798,8 +2813,8 @@
       <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="27"/>
-      <c r="B98" s="24"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="9" t="s">
         <v>118</v>
       </c>
@@ -2810,8 +2825,8 @@
       <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="27"/>
-      <c r="B99" s="25"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="9" t="s">
         <v>119</v>
       </c>
@@ -2822,8 +2837,8 @@
       <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="27"/>
-      <c r="B100" s="23" t="s">
+      <c r="A100" s="22"/>
+      <c r="B100" s="27" t="s">
         <v>120</v>
       </c>
       <c r="C100" s="9" t="s">
@@ -2836,8 +2851,8 @@
       <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="27"/>
-      <c r="B101" s="24"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="9" t="s">
         <v>122</v>
       </c>
@@ -2848,8 +2863,8 @@
       <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="27"/>
-      <c r="B102" s="24"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="28"/>
       <c r="C102" s="9" t="s">
         <v>123</v>
       </c>
@@ -2860,8 +2875,8 @@
       <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="27"/>
-      <c r="B103" s="24"/>
+      <c r="A103" s="22"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="9" t="s">
         <v>124</v>
       </c>
@@ -2872,8 +2887,8 @@
       <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="27"/>
-      <c r="B104" s="24"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="9" t="s">
         <v>125</v>
       </c>
@@ -2884,8 +2899,8 @@
       <c r="F104" s="18"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="27"/>
-      <c r="B105" s="24"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="9" t="s">
         <v>126</v>
       </c>
@@ -2896,8 +2911,8 @@
       <c r="F105" s="18"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="27"/>
-      <c r="B106" s="24"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="28"/>
       <c r="C106" s="9" t="s">
         <v>127</v>
       </c>
@@ -2908,8 +2923,8 @@
       <c r="F106" s="18"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="27"/>
-      <c r="B107" s="24"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="28"/>
       <c r="C107" s="9" t="s">
         <v>128</v>
       </c>
@@ -2920,8 +2935,8 @@
       <c r="F107" s="18"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="28"/>
-      <c r="B108" s="25"/>
+      <c r="A108" s="23"/>
+      <c r="B108" s="29"/>
       <c r="C108" s="9" t="s">
         <v>129</v>
       </c>
@@ -2932,10 +2947,10 @@
       <c r="F108" s="18"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="26">
+      <c r="A109" s="21">
         <v>2</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="30" t="s">
         <v>130</v>
       </c>
       <c r="C109" s="9" t="s">
@@ -2948,8 +2963,8 @@
       <c r="F109" s="18"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="27"/>
-      <c r="B110" s="21"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="31"/>
       <c r="C110" s="9" t="s">
         <v>132</v>
       </c>
@@ -2960,8 +2975,8 @@
       <c r="F110" s="18"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="27"/>
-      <c r="B111" s="21"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="31"/>
       <c r="C111" s="9" t="s">
         <v>133</v>
       </c>
@@ -2972,8 +2987,8 @@
       <c r="F111" s="18"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="27"/>
-      <c r="B112" s="21"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="31"/>
       <c r="C112" s="9" t="s">
         <v>134</v>
       </c>
@@ -2984,8 +2999,8 @@
       <c r="F112" s="18"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="27"/>
-      <c r="B113" s="21"/>
+      <c r="A113" s="22"/>
+      <c r="B113" s="31"/>
       <c r="C113" s="9" t="s">
         <v>135</v>
       </c>
@@ -2996,8 +3011,8 @@
       <c r="F113" s="18"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="27"/>
-      <c r="B114" s="21"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="31"/>
       <c r="C114" s="9" t="s">
         <v>136</v>
       </c>
@@ -3008,8 +3023,8 @@
       <c r="F114" s="18"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="27"/>
-      <c r="B115" s="21"/>
+      <c r="A115" s="22"/>
+      <c r="B115" s="31"/>
       <c r="C115" s="9" t="s">
         <v>137</v>
       </c>
@@ -3020,8 +3035,8 @@
       <c r="F115" s="18"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="27"/>
-      <c r="B116" s="21"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="31"/>
       <c r="C116" s="9" t="s">
         <v>138</v>
       </c>
@@ -3032,8 +3047,8 @@
       <c r="F116" s="18"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="27"/>
-      <c r="B117" s="21"/>
+      <c r="A117" s="22"/>
+      <c r="B117" s="31"/>
       <c r="C117" s="9" t="s">
         <v>139</v>
       </c>
@@ -3044,8 +3059,8 @@
       <c r="F117" s="18"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="27"/>
-      <c r="B118" s="21"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="31"/>
       <c r="C118" s="9" t="s">
         <v>140</v>
       </c>
@@ -3056,8 +3071,8 @@
       <c r="F118" s="18"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="27"/>
-      <c r="B119" s="21"/>
+      <c r="A119" s="22"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="9" t="s">
         <v>141</v>
       </c>
@@ -3068,8 +3083,8 @@
       <c r="F119" s="18"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="27"/>
-      <c r="B120" s="21"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="31"/>
       <c r="C120" s="9" t="s">
         <v>142</v>
       </c>
@@ -3080,8 +3095,8 @@
       <c r="F120" s="18"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="27"/>
-      <c r="B121" s="21"/>
+      <c r="A121" s="22"/>
+      <c r="B121" s="31"/>
       <c r="C121" s="9" t="s">
         <v>83</v>
       </c>
@@ -3092,8 +3107,8 @@
       <c r="F121" s="18"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="27"/>
-      <c r="B122" s="21"/>
+      <c r="A122" s="22"/>
+      <c r="B122" s="31"/>
       <c r="C122" s="9" t="s">
         <v>143</v>
       </c>
@@ -3104,8 +3119,8 @@
       <c r="F122" s="18"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="28"/>
-      <c r="B123" s="22"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="32"/>
       <c r="C123" s="9" t="s">
         <v>144</v>
       </c>
@@ -3116,7 +3131,7 @@
       <c r="F123" s="18"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="26">
+      <c r="A124" s="21">
         <v>3</v>
       </c>
       <c r="B124" s="17" t="s">
@@ -3128,7 +3143,7 @@
       <c r="F124" s="18"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="27"/>
+      <c r="A125" s="22"/>
       <c r="B125" s="10" t="s">
         <v>146</v>
       </c>
@@ -3138,8 +3153,8 @@
       <c r="F125" s="18"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="27"/>
-      <c r="B126" s="23" t="s">
+      <c r="A126" s="22"/>
+      <c r="B126" s="27" t="s">
         <v>147</v>
       </c>
       <c r="C126" s="9" t="s">
@@ -3152,8 +3167,8 @@
       <c r="F126" s="18"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="27"/>
-      <c r="B127" s="24"/>
+      <c r="A127" s="22"/>
+      <c r="B127" s="28"/>
       <c r="C127" s="9" t="s">
         <v>149</v>
       </c>
@@ -3164,8 +3179,8 @@
       <c r="F127" s="18"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="27"/>
-      <c r="B128" s="24"/>
+      <c r="A128" s="22"/>
+      <c r="B128" s="28"/>
       <c r="C128" s="9" t="s">
         <v>150</v>
       </c>
@@ -3176,8 +3191,8 @@
       <c r="F128" s="18"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="27"/>
-      <c r="B129" s="24"/>
+      <c r="A129" s="22"/>
+      <c r="B129" s="28"/>
       <c r="C129" s="9" t="s">
         <v>151</v>
       </c>
@@ -3188,8 +3203,8 @@
       <c r="F129" s="18"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="27"/>
-      <c r="B130" s="24"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="28"/>
       <c r="C130" s="9" t="s">
         <v>152</v>
       </c>
@@ -3200,8 +3215,8 @@
       <c r="F130" s="18"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="27"/>
-      <c r="B131" s="24"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="28"/>
       <c r="C131" s="9" t="s">
         <v>153</v>
       </c>
@@ -3212,8 +3227,8 @@
       <c r="F131" s="18"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="27"/>
-      <c r="B132" s="24"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="28"/>
       <c r="C132" s="9" t="s">
         <v>154</v>
       </c>
@@ -3224,8 +3239,8 @@
       <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="27"/>
-      <c r="B133" s="25"/>
+      <c r="A133" s="22"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="9" t="s">
         <v>155</v>
       </c>
@@ -3236,8 +3251,8 @@
       <c r="F133" s="18"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="27"/>
-      <c r="B134" s="23" t="s">
+      <c r="A134" s="22"/>
+      <c r="B134" s="27" t="s">
         <v>156</v>
       </c>
       <c r="C134" s="9" t="s">
@@ -3250,8 +3265,8 @@
       <c r="F134" s="18"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="27"/>
-      <c r="B135" s="24"/>
+      <c r="A135" s="22"/>
+      <c r="B135" s="28"/>
       <c r="C135" s="9" t="s">
         <v>158</v>
       </c>
@@ -3262,8 +3277,8 @@
       <c r="F135" s="18"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="27"/>
-      <c r="B136" s="24"/>
+      <c r="A136" s="22"/>
+      <c r="B136" s="28"/>
       <c r="C136" s="9" t="s">
         <v>159</v>
       </c>
@@ -3274,8 +3289,8 @@
       <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" ht="30">
-      <c r="A137" s="27"/>
-      <c r="B137" s="25"/>
+      <c r="A137" s="22"/>
+      <c r="B137" s="29"/>
       <c r="C137" s="9" t="s">
         <v>160</v>
       </c>
@@ -3286,8 +3301,8 @@
       <c r="F137" s="18"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="27"/>
-      <c r="B138" s="23" t="s">
+      <c r="A138" s="22"/>
+      <c r="B138" s="27" t="s">
         <v>161</v>
       </c>
       <c r="C138" s="9" t="s">
@@ -3300,8 +3315,8 @@
       <c r="F138" s="18"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="27"/>
-      <c r="B139" s="24"/>
+      <c r="A139" s="22"/>
+      <c r="B139" s="28"/>
       <c r="C139" s="9" t="s">
         <v>163</v>
       </c>
@@ -3312,8 +3327,8 @@
       <c r="F139" s="18"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="27"/>
-      <c r="B140" s="24"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="28"/>
       <c r="C140" s="9" t="s">
         <v>164</v>
       </c>
@@ -3324,8 +3339,8 @@
       <c r="F140" s="18"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="27"/>
-      <c r="B141" s="24"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="28"/>
       <c r="C141" s="9" t="s">
         <v>161</v>
       </c>
@@ -3336,8 +3351,8 @@
       <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="27"/>
-      <c r="B142" s="24"/>
+      <c r="A142" s="22"/>
+      <c r="B142" s="28"/>
       <c r="C142" s="9" t="s">
         <v>165</v>
       </c>
@@ -3348,8 +3363,8 @@
       <c r="F142" s="18"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="27"/>
-      <c r="B143" s="24"/>
+      <c r="A143" s="22"/>
+      <c r="B143" s="28"/>
       <c r="C143" s="9" t="s">
         <v>166</v>
       </c>
@@ -3360,8 +3375,8 @@
       <c r="F143" s="18"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="28"/>
-      <c r="B144" s="25"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="9" t="s">
         <v>167</v>
       </c>
@@ -3372,10 +3387,10 @@
       <c r="F144" s="18"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="26">
+      <c r="A145" s="21">
         <v>4</v>
       </c>
-      <c r="B145" s="20" t="s">
+      <c r="B145" s="30" t="s">
         <v>168</v>
       </c>
       <c r="C145" s="9" t="s">
@@ -3388,8 +3403,8 @@
       <c r="F145" s="18"/>
     </row>
     <row r="146" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A146" s="27"/>
-      <c r="B146" s="21"/>
+      <c r="A146" s="22"/>
+      <c r="B146" s="31"/>
       <c r="C146" s="9" t="s">
         <v>170</v>
       </c>
@@ -3400,8 +3415,8 @@
       <c r="F146" s="18"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="27"/>
-      <c r="B147" s="21"/>
+      <c r="A147" s="22"/>
+      <c r="B147" s="31"/>
       <c r="C147" s="9" t="s">
         <v>171</v>
       </c>
@@ -3412,8 +3427,8 @@
       <c r="F147" s="18"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="27"/>
-      <c r="B148" s="21"/>
+      <c r="A148" s="22"/>
+      <c r="B148" s="31"/>
       <c r="C148" s="9" t="s">
         <v>172</v>
       </c>
@@ -3424,8 +3439,8 @@
       <c r="F148" s="18"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="27"/>
-      <c r="B149" s="21"/>
+      <c r="A149" s="22"/>
+      <c r="B149" s="31"/>
       <c r="C149" s="9" t="s">
         <v>173</v>
       </c>
@@ -3436,8 +3451,8 @@
       <c r="F149" s="18"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="27"/>
-      <c r="B150" s="21"/>
+      <c r="A150" s="22"/>
+      <c r="B150" s="31"/>
       <c r="C150" s="9" t="s">
         <v>174</v>
       </c>
@@ -3448,8 +3463,8 @@
       <c r="F150" s="18"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="27"/>
-      <c r="B151" s="21"/>
+      <c r="A151" s="22"/>
+      <c r="B151" s="31"/>
       <c r="C151" s="9" t="s">
         <v>175</v>
       </c>
@@ -3460,8 +3475,8 @@
       <c r="F151" s="18"/>
     </row>
     <row r="152" spans="1:6" ht="30">
-      <c r="A152" s="27"/>
-      <c r="B152" s="21"/>
+      <c r="A152" s="22"/>
+      <c r="B152" s="31"/>
       <c r="C152" s="9" t="s">
         <v>176</v>
       </c>
@@ -3472,8 +3487,8 @@
       <c r="F152" s="18"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="27"/>
-      <c r="B153" s="21"/>
+      <c r="A153" s="22"/>
+      <c r="B153" s="31"/>
       <c r="C153" s="9" t="s">
         <v>177</v>
       </c>
@@ -3484,8 +3499,8 @@
       <c r="F153" s="18"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="27"/>
-      <c r="B154" s="21"/>
+      <c r="A154" s="22"/>
+      <c r="B154" s="31"/>
       <c r="C154" s="9" t="s">
         <v>178</v>
       </c>
@@ -3496,8 +3511,8 @@
       <c r="F154" s="18"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="27"/>
-      <c r="B155" s="21"/>
+      <c r="A155" s="22"/>
+      <c r="B155" s="31"/>
       <c r="C155" s="9" t="s">
         <v>179</v>
       </c>
@@ -3508,8 +3523,8 @@
       <c r="F155" s="18"/>
     </row>
     <row r="156" spans="1:6" ht="30">
-      <c r="A156" s="27"/>
-      <c r="B156" s="21"/>
+      <c r="A156" s="22"/>
+      <c r="B156" s="31"/>
       <c r="C156" s="9" t="s">
         <v>180</v>
       </c>
@@ -3520,8 +3535,8 @@
       <c r="F156" s="18"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="27"/>
-      <c r="B157" s="21"/>
+      <c r="A157" s="22"/>
+      <c r="B157" s="31"/>
       <c r="C157" s="9" t="s">
         <v>181</v>
       </c>
@@ -3532,8 +3547,8 @@
       <c r="F157" s="18"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="27"/>
-      <c r="B158" s="21"/>
+      <c r="A158" s="22"/>
+      <c r="B158" s="31"/>
       <c r="C158" s="9" t="s">
         <v>182</v>
       </c>
@@ -3544,8 +3559,8 @@
       <c r="F158" s="18"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="27"/>
-      <c r="B159" s="21"/>
+      <c r="A159" s="22"/>
+      <c r="B159" s="31"/>
       <c r="C159" s="9" t="s">
         <v>183</v>
       </c>
@@ -3556,8 +3571,8 @@
       <c r="F159" s="18"/>
     </row>
     <row r="160" spans="1:6" ht="30">
-      <c r="A160" s="27"/>
-      <c r="B160" s="21"/>
+      <c r="A160" s="22"/>
+      <c r="B160" s="31"/>
       <c r="C160" s="9" t="s">
         <v>184</v>
       </c>
@@ -3568,8 +3583,8 @@
       <c r="F160" s="18"/>
     </row>
     <row r="161" spans="1:6" ht="30">
-      <c r="A161" s="27"/>
-      <c r="B161" s="21"/>
+      <c r="A161" s="22"/>
+      <c r="B161" s="31"/>
       <c r="C161" s="9" t="s">
         <v>185</v>
       </c>
@@ -3580,8 +3595,8 @@
       <c r="F161" s="18"/>
     </row>
     <row r="162" spans="1:6" ht="45">
-      <c r="A162" s="27"/>
-      <c r="B162" s="21"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="31"/>
       <c r="C162" s="9" t="s">
         <v>186</v>
       </c>
@@ -3592,8 +3607,8 @@
       <c r="F162" s="18"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="27"/>
-      <c r="B163" s="21"/>
+      <c r="A163" s="22"/>
+      <c r="B163" s="31"/>
       <c r="C163" s="9" t="s">
         <v>187</v>
       </c>
@@ -3604,8 +3619,8 @@
       <c r="F163" s="18"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="27"/>
-      <c r="B164" s="21"/>
+      <c r="A164" s="22"/>
+      <c r="B164" s="31"/>
       <c r="C164" s="9" t="s">
         <v>188</v>
       </c>
@@ -3616,8 +3631,8 @@
       <c r="F164" s="18"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="27"/>
-      <c r="B165" s="21"/>
+      <c r="A165" s="22"/>
+      <c r="B165" s="31"/>
       <c r="C165" s="9" t="s">
         <v>189</v>
       </c>
@@ -3628,8 +3643,8 @@
       <c r="F165" s="18"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="27"/>
-      <c r="B166" s="21"/>
+      <c r="A166" s="22"/>
+      <c r="B166" s="31"/>
       <c r="C166" s="9" t="s">
         <v>190</v>
       </c>
@@ -3640,8 +3655,8 @@
       <c r="F166" s="18"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="27"/>
-      <c r="B167" s="21"/>
+      <c r="A167" s="22"/>
+      <c r="B167" s="31"/>
       <c r="C167" s="9" t="s">
         <v>191</v>
       </c>
@@ -3652,8 +3667,8 @@
       <c r="F167" s="18"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="27"/>
-      <c r="B168" s="21"/>
+      <c r="A168" s="22"/>
+      <c r="B168" s="31"/>
       <c r="C168" s="9" t="s">
         <v>192</v>
       </c>
@@ -3664,8 +3679,8 @@
       <c r="F168" s="18"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="27"/>
-      <c r="B169" s="21"/>
+      <c r="A169" s="22"/>
+      <c r="B169" s="31"/>
       <c r="C169" s="9" t="s">
         <v>193</v>
       </c>
@@ -3676,8 +3691,8 @@
       <c r="F169" s="18"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="28"/>
-      <c r="B170" s="22"/>
+      <c r="A170" s="23"/>
+      <c r="B170" s="32"/>
       <c r="C170" s="9" t="s">
         <v>194</v>
       </c>
@@ -3688,10 +3703,10 @@
       <c r="F170" s="18"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="26">
+      <c r="A171" s="21">
         <v>5</v>
       </c>
-      <c r="B171" s="20" t="s">
+      <c r="B171" s="30" t="s">
         <v>195</v>
       </c>
       <c r="C171" s="9" t="s">
@@ -3704,8 +3719,8 @@
       <c r="F171" s="18"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="27"/>
-      <c r="B172" s="21"/>
+      <c r="A172" s="22"/>
+      <c r="B172" s="31"/>
       <c r="C172" s="9" t="s">
         <v>197</v>
       </c>
@@ -3716,8 +3731,8 @@
       <c r="F172" s="18"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="27"/>
-      <c r="B173" s="21"/>
+      <c r="A173" s="22"/>
+      <c r="B173" s="31"/>
       <c r="C173" s="9" t="s">
         <v>198</v>
       </c>
@@ -3728,8 +3743,8 @@
       <c r="F173" s="18"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="27"/>
-      <c r="B174" s="21"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="31"/>
       <c r="C174" s="9" t="s">
         <v>199</v>
       </c>
@@ -3740,8 +3755,8 @@
       <c r="F174" s="18"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="27"/>
-      <c r="B175" s="21"/>
+      <c r="A175" s="22"/>
+      <c r="B175" s="31"/>
       <c r="C175" s="9" t="s">
         <v>200</v>
       </c>
@@ -3752,8 +3767,8 @@
       <c r="F175" s="18"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="27"/>
-      <c r="B176" s="21"/>
+      <c r="A176" s="22"/>
+      <c r="B176" s="31"/>
       <c r="C176" s="9" t="s">
         <v>201</v>
       </c>
@@ -3764,8 +3779,8 @@
       <c r="F176" s="18"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="27"/>
-      <c r="B177" s="21"/>
+      <c r="A177" s="22"/>
+      <c r="B177" s="31"/>
       <c r="C177" s="9" t="s">
         <v>202</v>
       </c>
@@ -3776,8 +3791,8 @@
       <c r="F177" s="18"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="27"/>
-      <c r="B178" s="21"/>
+      <c r="A178" s="22"/>
+      <c r="B178" s="31"/>
       <c r="C178" s="9" t="s">
         <v>203</v>
       </c>
@@ -3788,8 +3803,8 @@
       <c r="F178" s="18"/>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="27"/>
-      <c r="B179" s="21"/>
+      <c r="A179" s="22"/>
+      <c r="B179" s="31"/>
       <c r="C179" s="9" t="s">
         <v>204</v>
       </c>
@@ -3800,8 +3815,8 @@
       <c r="F179" s="18"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="27"/>
-      <c r="B180" s="21"/>
+      <c r="A180" s="22"/>
+      <c r="B180" s="31"/>
       <c r="C180" s="9" t="s">
         <v>205</v>
       </c>
@@ -3812,8 +3827,8 @@
       <c r="F180" s="18"/>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="27"/>
-      <c r="B181" s="21"/>
+      <c r="A181" s="22"/>
+      <c r="B181" s="31"/>
       <c r="C181" s="9" t="s">
         <v>206</v>
       </c>
@@ -3824,8 +3839,8 @@
       <c r="F181" s="18"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="27"/>
-      <c r="B182" s="21"/>
+      <c r="A182" s="22"/>
+      <c r="B182" s="31"/>
       <c r="C182" s="9" t="s">
         <v>207</v>
       </c>
@@ -3836,8 +3851,8 @@
       <c r="F182" s="18"/>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="27"/>
-      <c r="B183" s="21"/>
+      <c r="A183" s="22"/>
+      <c r="B183" s="31"/>
       <c r="C183" s="9" t="s">
         <v>208</v>
       </c>
@@ -3848,8 +3863,8 @@
       <c r="F183" s="18"/>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="27"/>
-      <c r="B184" s="21"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="31"/>
       <c r="C184" s="9" t="s">
         <v>209</v>
       </c>
@@ -3860,8 +3875,8 @@
       <c r="F184" s="18"/>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="27"/>
-      <c r="B185" s="21"/>
+      <c r="A185" s="22"/>
+      <c r="B185" s="31"/>
       <c r="C185" s="9" t="s">
         <v>210</v>
       </c>
@@ -3872,8 +3887,8 @@
       <c r="F185" s="18"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="27"/>
-      <c r="B186" s="21"/>
+      <c r="A186" s="22"/>
+      <c r="B186" s="31"/>
       <c r="C186" s="9" t="s">
         <v>211</v>
       </c>
@@ -3884,8 +3899,8 @@
       <c r="F186" s="18"/>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="27"/>
-      <c r="B187" s="21"/>
+      <c r="A187" s="22"/>
+      <c r="B187" s="31"/>
       <c r="C187" s="9" t="s">
         <v>212</v>
       </c>
@@ -3896,8 +3911,8 @@
       <c r="F187" s="18"/>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="27"/>
-      <c r="B188" s="21"/>
+      <c r="A188" s="22"/>
+      <c r="B188" s="31"/>
       <c r="C188" s="9" t="s">
         <v>213</v>
       </c>
@@ -3908,8 +3923,8 @@
       <c r="F188" s="18"/>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="27"/>
-      <c r="B189" s="21"/>
+      <c r="A189" s="22"/>
+      <c r="B189" s="31"/>
       <c r="C189" s="9" t="s">
         <v>214</v>
       </c>
@@ -3920,8 +3935,8 @@
       <c r="F189" s="18"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="27"/>
-      <c r="B190" s="21"/>
+      <c r="A190" s="22"/>
+      <c r="B190" s="31"/>
       <c r="C190" s="9" t="s">
         <v>215</v>
       </c>
@@ -3932,8 +3947,8 @@
       <c r="F190" s="18"/>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="27"/>
-      <c r="B191" s="21"/>
+      <c r="A191" s="22"/>
+      <c r="B191" s="31"/>
       <c r="C191" s="9" t="s">
         <v>216</v>
       </c>
@@ -3944,8 +3959,8 @@
       <c r="F191" s="18"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="27"/>
-      <c r="B192" s="21"/>
+      <c r="A192" s="22"/>
+      <c r="B192" s="31"/>
       <c r="C192" s="9" t="s">
         <v>217</v>
       </c>
@@ -3956,8 +3971,8 @@
       <c r="F192" s="18"/>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="27"/>
-      <c r="B193" s="21"/>
+      <c r="A193" s="22"/>
+      <c r="B193" s="31"/>
       <c r="C193" s="9" t="s">
         <v>218</v>
       </c>
@@ -3968,8 +3983,8 @@
       <c r="F193" s="18"/>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="27"/>
-      <c r="B194" s="21"/>
+      <c r="A194" s="22"/>
+      <c r="B194" s="31"/>
       <c r="C194" s="9" t="s">
         <v>219</v>
       </c>
@@ -3980,8 +3995,8 @@
       <c r="F194" s="18"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="27"/>
-      <c r="B195" s="21"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="31"/>
       <c r="C195" s="9" t="s">
         <v>220</v>
       </c>
@@ -3992,8 +4007,8 @@
       <c r="F195" s="18"/>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="27"/>
-      <c r="B196" s="21"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="31"/>
       <c r="C196" s="9" t="s">
         <v>221</v>
       </c>
@@ -4004,8 +4019,8 @@
       <c r="F196" s="18"/>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="27"/>
-      <c r="B197" s="21"/>
+      <c r="A197" s="22"/>
+      <c r="B197" s="31"/>
       <c r="C197" s="9" t="s">
         <v>222</v>
       </c>
@@ -4016,8 +4031,8 @@
       <c r="F197" s="18"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="28"/>
-      <c r="B198" s="22"/>
+      <c r="A198" s="23"/>
+      <c r="B198" s="32"/>
       <c r="C198" s="9" t="s">
         <v>223</v>
       </c>
@@ -4028,10 +4043,10 @@
       <c r="F198" s="18"/>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="26">
+      <c r="A199" s="21">
         <v>6</v>
       </c>
-      <c r="B199" s="20" t="s">
+      <c r="B199" s="30" t="s">
         <v>224</v>
       </c>
       <c r="C199" s="9" t="s">
@@ -4044,8 +4059,8 @@
       <c r="F199" s="18"/>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="27"/>
-      <c r="B200" s="21"/>
+      <c r="A200" s="22"/>
+      <c r="B200" s="31"/>
       <c r="C200" s="9" t="s">
         <v>226</v>
       </c>
@@ -4056,8 +4071,8 @@
       <c r="F200" s="18"/>
     </row>
     <row r="201" spans="1:6" ht="30">
-      <c r="A201" s="27"/>
-      <c r="B201" s="21"/>
+      <c r="A201" s="22"/>
+      <c r="B201" s="31"/>
       <c r="C201" s="9" t="s">
         <v>227</v>
       </c>
@@ -4068,8 +4083,8 @@
       <c r="F201" s="18"/>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="27"/>
-      <c r="B202" s="21"/>
+      <c r="A202" s="22"/>
+      <c r="B202" s="31"/>
       <c r="C202" s="9" t="s">
         <v>228</v>
       </c>
@@ -4080,8 +4095,8 @@
       <c r="F202" s="18"/>
     </row>
     <row r="203" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A203" s="27"/>
-      <c r="B203" s="21"/>
+      <c r="A203" s="22"/>
+      <c r="B203" s="31"/>
       <c r="C203" s="9" t="s">
         <v>229</v>
       </c>
@@ -4092,8 +4107,8 @@
       <c r="F203" s="18"/>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="27"/>
-      <c r="B204" s="21"/>
+      <c r="A204" s="22"/>
+      <c r="B204" s="31"/>
       <c r="C204" s="9" t="s">
         <v>230</v>
       </c>
@@ -4104,8 +4119,8 @@
       <c r="F204" s="18"/>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="27"/>
-      <c r="B205" s="21"/>
+      <c r="A205" s="22"/>
+      <c r="B205" s="31"/>
       <c r="C205" s="9" t="s">
         <v>231</v>
       </c>
@@ -4116,8 +4131,8 @@
       <c r="F205" s="18"/>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="27"/>
-      <c r="B206" s="21"/>
+      <c r="A206" s="22"/>
+      <c r="B206" s="31"/>
       <c r="C206" s="9" t="s">
         <v>232</v>
       </c>
@@ -4128,8 +4143,8 @@
       <c r="F206" s="18"/>
     </row>
     <row r="207" spans="1:6" ht="30">
-      <c r="A207" s="27"/>
-      <c r="B207" s="21"/>
+      <c r="A207" s="22"/>
+      <c r="B207" s="31"/>
       <c r="C207" s="9" t="s">
         <v>233</v>
       </c>
@@ -4140,8 +4155,8 @@
       <c r="F207" s="18"/>
     </row>
     <row r="208" spans="1:6" ht="30">
-      <c r="A208" s="27"/>
-      <c r="B208" s="21"/>
+      <c r="A208" s="22"/>
+      <c r="B208" s="31"/>
       <c r="C208" s="9" t="s">
         <v>234</v>
       </c>
@@ -4152,8 +4167,8 @@
       <c r="F208" s="18"/>
     </row>
     <row r="209" spans="1:6" ht="30">
-      <c r="A209" s="27"/>
-      <c r="B209" s="21"/>
+      <c r="A209" s="22"/>
+      <c r="B209" s="31"/>
       <c r="C209" s="9" t="s">
         <v>235</v>
       </c>
@@ -4164,8 +4179,8 @@
       <c r="F209" s="18"/>
     </row>
     <row r="210" spans="1:6" ht="30">
-      <c r="A210" s="27"/>
-      <c r="B210" s="21"/>
+      <c r="A210" s="22"/>
+      <c r="B210" s="31"/>
       <c r="C210" s="9" t="s">
         <v>236</v>
       </c>
@@ -4176,8 +4191,8 @@
       <c r="F210" s="18"/>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="27"/>
-      <c r="B211" s="21"/>
+      <c r="A211" s="22"/>
+      <c r="B211" s="31"/>
       <c r="C211" s="9" t="s">
         <v>237</v>
       </c>
@@ -4188,8 +4203,8 @@
       <c r="F211" s="18"/>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="27"/>
-      <c r="B212" s="21"/>
+      <c r="A212" s="22"/>
+      <c r="B212" s="31"/>
       <c r="C212" s="9" t="s">
         <v>238</v>
       </c>
@@ -4200,8 +4215,8 @@
       <c r="F212" s="18"/>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="27"/>
-      <c r="B213" s="21"/>
+      <c r="A213" s="22"/>
+      <c r="B213" s="31"/>
       <c r="C213" s="9" t="s">
         <v>239</v>
       </c>
@@ -4212,8 +4227,8 @@
       <c r="F213" s="18"/>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="27"/>
-      <c r="B214" s="21"/>
+      <c r="A214" s="22"/>
+      <c r="B214" s="31"/>
       <c r="C214" s="9" t="s">
         <v>240</v>
       </c>
@@ -4224,8 +4239,8 @@
       <c r="F214" s="18"/>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="27"/>
-      <c r="B215" s="21"/>
+      <c r="A215" s="22"/>
+      <c r="B215" s="31"/>
       <c r="C215" s="9" t="s">
         <v>241</v>
       </c>
@@ -4236,8 +4251,8 @@
       <c r="F215" s="18"/>
     </row>
     <row r="216" spans="1:6" ht="30">
-      <c r="A216" s="27"/>
-      <c r="B216" s="21"/>
+      <c r="A216" s="22"/>
+      <c r="B216" s="31"/>
       <c r="C216" s="9" t="s">
         <v>242</v>
       </c>
@@ -4248,8 +4263,8 @@
       <c r="F216" s="18"/>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="28"/>
-      <c r="B217" s="22"/>
+      <c r="A217" s="23"/>
+      <c r="B217" s="32"/>
       <c r="C217" s="9" t="s">
         <v>243</v>
       </c>
@@ -4260,10 +4275,10 @@
       <c r="F217" s="18"/>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="26">
+      <c r="A218" s="21">
         <v>7</v>
       </c>
-      <c r="B218" s="20" t="s">
+      <c r="B218" s="30" t="s">
         <v>244</v>
       </c>
       <c r="C218" s="9" t="s">
@@ -4276,8 +4291,8 @@
       <c r="F218" s="18"/>
     </row>
     <row r="219" spans="1:6" ht="30">
-      <c r="A219" s="27"/>
-      <c r="B219" s="21"/>
+      <c r="A219" s="22"/>
+      <c r="B219" s="31"/>
       <c r="C219" s="9" t="s">
         <v>246</v>
       </c>
@@ -4288,8 +4303,8 @@
       <c r="F219" s="18"/>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="27"/>
-      <c r="B220" s="21"/>
+      <c r="A220" s="22"/>
+      <c r="B220" s="31"/>
       <c r="C220" s="9" t="s">
         <v>247</v>
       </c>
@@ -4300,8 +4315,8 @@
       <c r="F220" s="18"/>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="27"/>
-      <c r="B221" s="21"/>
+      <c r="A221" s="22"/>
+      <c r="B221" s="31"/>
       <c r="C221" s="9" t="s">
         <v>248</v>
       </c>
@@ -4312,8 +4327,8 @@
       <c r="F221" s="18"/>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="27"/>
-      <c r="B222" s="21"/>
+      <c r="A222" s="22"/>
+      <c r="B222" s="31"/>
       <c r="C222" s="9" t="s">
         <v>249</v>
       </c>
@@ -4324,8 +4339,8 @@
       <c r="F222" s="18"/>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="27"/>
-      <c r="B223" s="21"/>
+      <c r="A223" s="22"/>
+      <c r="B223" s="31"/>
       <c r="C223" s="9" t="s">
         <v>250</v>
       </c>
@@ -4336,8 +4351,8 @@
       <c r="F223" s="18"/>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="27"/>
-      <c r="B224" s="21"/>
+      <c r="A224" s="22"/>
+      <c r="B224" s="31"/>
       <c r="C224" s="9" t="s">
         <v>251</v>
       </c>
@@ -4348,8 +4363,8 @@
       <c r="F224" s="18"/>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="27"/>
-      <c r="B225" s="21"/>
+      <c r="A225" s="22"/>
+      <c r="B225" s="31"/>
       <c r="C225" s="9" t="s">
         <v>252</v>
       </c>
@@ -4360,8 +4375,8 @@
       <c r="F225" s="18"/>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="27"/>
-      <c r="B226" s="21"/>
+      <c r="A226" s="22"/>
+      <c r="B226" s="31"/>
       <c r="C226" s="9" t="s">
         <v>253</v>
       </c>
@@ -4372,8 +4387,8 @@
       <c r="F226" s="18"/>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="27"/>
-      <c r="B227" s="21"/>
+      <c r="A227" s="22"/>
+      <c r="B227" s="31"/>
       <c r="C227" s="9" t="s">
         <v>254</v>
       </c>
@@ -4384,8 +4399,8 @@
       <c r="F227" s="18"/>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="27"/>
-      <c r="B228" s="21"/>
+      <c r="A228" s="22"/>
+      <c r="B228" s="31"/>
       <c r="C228" s="9" t="s">
         <v>107</v>
       </c>
@@ -4396,8 +4411,8 @@
       <c r="F228" s="18"/>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="27"/>
-      <c r="B229" s="21"/>
+      <c r="A229" s="22"/>
+      <c r="B229" s="31"/>
       <c r="C229" s="9" t="s">
         <v>255</v>
       </c>
@@ -4408,8 +4423,8 @@
       <c r="F229" s="18"/>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="27"/>
-      <c r="B230" s="21"/>
+      <c r="A230" s="22"/>
+      <c r="B230" s="31"/>
       <c r="C230" s="9" t="s">
         <v>256</v>
       </c>
@@ -4420,8 +4435,8 @@
       <c r="F230" s="18"/>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="27"/>
-      <c r="B231" s="21"/>
+      <c r="A231" s="22"/>
+      <c r="B231" s="31"/>
       <c r="C231" s="9" t="s">
         <v>257</v>
       </c>
@@ -4432,8 +4447,8 @@
       <c r="F231" s="18"/>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="27"/>
-      <c r="B232" s="21"/>
+      <c r="A232" s="22"/>
+      <c r="B232" s="31"/>
       <c r="C232" s="9" t="s">
         <v>258</v>
       </c>
@@ -4444,8 +4459,8 @@
       <c r="F232" s="18"/>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="27"/>
-      <c r="B233" s="21"/>
+      <c r="A233" s="22"/>
+      <c r="B233" s="31"/>
       <c r="C233" s="9" t="s">
         <v>259</v>
       </c>
@@ -4456,8 +4471,8 @@
       <c r="F233" s="18"/>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="28"/>
-      <c r="B234" s="22"/>
+      <c r="A234" s="23"/>
+      <c r="B234" s="32"/>
       <c r="C234" s="9" t="s">
         <v>260</v>
       </c>
@@ -4468,10 +4483,10 @@
       <c r="F234" s="18"/>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="26">
+      <c r="A235" s="21">
         <v>8</v>
       </c>
-      <c r="B235" s="20" t="s">
+      <c r="B235" s="30" t="s">
         <v>261</v>
       </c>
       <c r="C235" s="9" t="s">
@@ -4484,8 +4499,8 @@
       <c r="F235" s="18"/>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="27"/>
-      <c r="B236" s="21"/>
+      <c r="A236" s="22"/>
+      <c r="B236" s="31"/>
       <c r="C236" s="9" t="s">
         <v>263</v>
       </c>
@@ -4496,8 +4511,8 @@
       <c r="F236" s="18"/>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="27"/>
-      <c r="B237" s="21"/>
+      <c r="A237" s="22"/>
+      <c r="B237" s="31"/>
       <c r="C237" s="9" t="s">
         <v>264</v>
       </c>
@@ -4508,8 +4523,8 @@
       <c r="F237" s="18"/>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="28"/>
-      <c r="B238" s="22"/>
+      <c r="A238" s="23"/>
+      <c r="B238" s="32"/>
       <c r="C238" s="9" t="s">
         <v>265</v>
       </c>
@@ -4520,10 +4535,10 @@
       <c r="F238" s="18"/>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="26">
+      <c r="A239" s="21">
         <v>9</v>
       </c>
-      <c r="B239" s="20" t="s">
+      <c r="B239" s="30" t="s">
         <v>266</v>
       </c>
       <c r="C239" s="9" t="s">
@@ -4536,8 +4551,8 @@
       <c r="F239" s="18"/>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="27"/>
-      <c r="B240" s="21"/>
+      <c r="A240" s="22"/>
+      <c r="B240" s="31"/>
       <c r="C240" s="9" t="s">
         <v>268</v>
       </c>
@@ -4548,8 +4563,8 @@
       <c r="F240" s="18"/>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="27"/>
-      <c r="B241" s="21"/>
+      <c r="A241" s="22"/>
+      <c r="B241" s="31"/>
       <c r="C241" s="9" t="s">
         <v>269</v>
       </c>
@@ -4560,8 +4575,8 @@
       <c r="F241" s="18"/>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="27"/>
-      <c r="B242" s="21"/>
+      <c r="A242" s="22"/>
+      <c r="B242" s="31"/>
       <c r="C242" s="9" t="s">
         <v>270</v>
       </c>
@@ -4572,8 +4587,8 @@
       <c r="F242" s="18"/>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="27"/>
-      <c r="B243" s="21"/>
+      <c r="A243" s="22"/>
+      <c r="B243" s="31"/>
       <c r="C243" s="9" t="s">
         <v>271</v>
       </c>
@@ -4584,8 +4599,8 @@
       <c r="F243" s="18"/>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="28"/>
-      <c r="B244" s="22"/>
+      <c r="A244" s="23"/>
+      <c r="B244" s="32"/>
       <c r="C244" s="9" t="s">
         <v>272</v>
       </c>
@@ -4597,11 +4612,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A2:A108"/>
-    <mergeCell ref="A109:A123"/>
-    <mergeCell ref="A124:A144"/>
-    <mergeCell ref="A145:A170"/>
-    <mergeCell ref="A171:A198"/>
+    <mergeCell ref="B239:B244"/>
+    <mergeCell ref="B145:B170"/>
+    <mergeCell ref="B171:B198"/>
+    <mergeCell ref="B199:B217"/>
+    <mergeCell ref="B218:B234"/>
+    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="B109:B123"/>
+    <mergeCell ref="B126:B133"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B138:B144"/>
     <mergeCell ref="A199:A217"/>
     <mergeCell ref="A218:A234"/>
     <mergeCell ref="A235:A238"/>
@@ -4618,30 +4639,24 @@
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="B81:B90"/>
     <mergeCell ref="B91:B99"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="B109:B123"/>
-    <mergeCell ref="B126:B133"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B138:B144"/>
-    <mergeCell ref="B239:B244"/>
-    <mergeCell ref="B145:B170"/>
-    <mergeCell ref="B171:B198"/>
-    <mergeCell ref="B199:B217"/>
-    <mergeCell ref="B218:B234"/>
-    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="A2:A108"/>
+    <mergeCell ref="A109:A123"/>
+    <mergeCell ref="A124:A144"/>
+    <mergeCell ref="A145:A170"/>
+    <mergeCell ref="A171:A198"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Resource!$A$1:$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D123 D126:D244</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Status!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -4654,7 +4669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5109,7 +5124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/HCA 201 Content Analysis Tracker.xlsx
+++ b/HCA 201 Content Analysis Tracker.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Synophic\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1E70A3-A07A-42F8-9A61-008599C02FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -154,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="284">
   <si>
     <t>S.No</t>
   </si>
@@ -1003,12 +997,15 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1199,6 +1196,24 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1214,24 +1229,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1508,7 +1505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
@@ -1554,7 +1551,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A2" s="21">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1567,8 +1564,8 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1591,8 +1588,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1613,8 +1610,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
@@ -1635,8 +1632,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1654,8 +1651,8 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1673,8 +1670,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1692,8 +1689,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1711,8 +1708,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="22"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="9" t="s">
         <v>21</v>
       </c>
@@ -1730,8 +1727,8 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="22"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1744,8 +1741,8 @@
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="22"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1758,8 +1755,8 @@
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="22"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
@@ -1772,8 +1769,8 @@
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="22"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="9" t="s">
         <v>17</v>
       </c>
@@ -1784,8 +1781,8 @@
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="22"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1798,8 +1795,8 @@
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="22"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="9" t="s">
         <v>26</v>
       </c>
@@ -1812,8 +1809,8 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="22"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1828,8 +1825,8 @@
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="9" t="s">
         <v>29</v>
       </c>
@@ -1840,8 +1837,8 @@
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="22"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="9" t="s">
         <v>30</v>
       </c>
@@ -1852,8 +1849,8 @@
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="22"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="9" t="s">
         <v>31</v>
       </c>
@@ -1864,8 +1861,8 @@
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="22"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="9" t="s">
         <v>32</v>
       </c>
@@ -1876,8 +1873,8 @@
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="9" t="s">
         <v>33</v>
       </c>
@@ -1888,8 +1885,8 @@
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="22"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="9" t="s">
         <v>34</v>
       </c>
@@ -1900,8 +1897,8 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="22"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="9" t="s">
         <v>35</v>
       </c>
@@ -1912,8 +1909,8 @@
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="22"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -1926,8 +1923,8 @@
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="9" t="s">
         <v>38</v>
       </c>
@@ -1938,8 +1935,8 @@
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="9" t="s">
         <v>39</v>
       </c>
@@ -1950,8 +1947,8 @@
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="22"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="9" t="s">
         <v>40</v>
       </c>
@@ -1962,8 +1959,8 @@
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="22"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="9" t="s">
         <v>41</v>
       </c>
@@ -1974,8 +1971,8 @@
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="22"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="9" t="s">
         <v>42</v>
       </c>
@@ -1986,8 +1983,8 @@
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="22"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="9" t="s">
         <v>43</v>
       </c>
@@ -1998,8 +1995,8 @@
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="22"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="9" t="s">
         <v>44</v>
       </c>
@@ -2010,8 +2007,8 @@
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="22"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="9" t="s">
         <v>45</v>
       </c>
@@ -2022,8 +2019,8 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="22"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2036,8 +2033,8 @@
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="9" t="s">
         <v>48</v>
       </c>
@@ -2048,8 +2045,8 @@
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="22"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="9" t="s">
         <v>49</v>
       </c>
@@ -2060,8 +2057,8 @@
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="22"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="9" t="s">
         <v>50</v>
       </c>
@@ -2072,8 +2069,8 @@
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="22"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="9" t="s">
         <v>51</v>
       </c>
@@ -2084,8 +2081,8 @@
       <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="22"/>
-      <c r="B39" s="27" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="24" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -2098,8 +2095,8 @@
       <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="22"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="9" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2107,8 @@
       <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="22"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="9" t="s">
         <v>55</v>
       </c>
@@ -2122,8 +2119,8 @@
       <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="22"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="9" t="s">
         <v>56</v>
       </c>
@@ -2134,8 +2131,8 @@
       <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="22"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="9" t="s">
         <v>57</v>
       </c>
@@ -2146,8 +2143,8 @@
       <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="22"/>
-      <c r="B44" s="27" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="24" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -2160,8 +2157,8 @@
       <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="22"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="9" t="s">
         <v>60</v>
       </c>
@@ -2172,8 +2169,8 @@
       <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="22"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="9" t="s">
         <v>61</v>
       </c>
@@ -2184,8 +2181,8 @@
       <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="22"/>
-      <c r="B47" s="28"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="9" t="s">
         <v>62</v>
       </c>
@@ -2196,8 +2193,8 @@
       <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="22"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="9" t="s">
         <v>63</v>
       </c>
@@ -2208,8 +2205,8 @@
       <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="22"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="9" t="s">
         <v>64</v>
       </c>
@@ -2220,8 +2217,8 @@
       <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="22"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="9" t="s">
         <v>65</v>
       </c>
@@ -2232,8 +2229,8 @@
       <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="22"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="9" t="s">
         <v>66</v>
       </c>
@@ -2244,8 +2241,8 @@
       <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="22"/>
-      <c r="B52" s="27" t="s">
+      <c r="A52" s="28"/>
+      <c r="B52" s="24" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -2258,8 +2255,8 @@
       <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="9" t="s">
         <v>68</v>
       </c>
@@ -2270,8 +2267,8 @@
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="22"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="9" t="s">
         <v>69</v>
       </c>
@@ -2282,8 +2279,8 @@
       <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="22"/>
-      <c r="B55" s="28"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="9" t="s">
         <v>70</v>
       </c>
@@ -2294,8 +2291,8 @@
       <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="22"/>
-      <c r="B56" s="28"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="9" t="s">
         <v>71</v>
       </c>
@@ -2306,8 +2303,8 @@
       <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="22"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="9" t="s">
         <v>72</v>
       </c>
@@ -2318,8 +2315,8 @@
       <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="22"/>
-      <c r="B58" s="28"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="9" t="s">
         <v>73</v>
       </c>
@@ -2330,8 +2327,8 @@
       <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="22"/>
-      <c r="B59" s="28"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="9" t="s">
         <v>74</v>
       </c>
@@ -2342,8 +2339,8 @@
       <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="22"/>
-      <c r="B60" s="28"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="9" t="s">
         <v>75</v>
       </c>
@@ -2354,8 +2351,8 @@
       <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="22"/>
-      <c r="B61" s="29"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="9" t="s">
         <v>76</v>
       </c>
@@ -2366,8 +2363,8 @@
       <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="22"/>
-      <c r="B62" s="27" t="s">
+      <c r="A62" s="28"/>
+      <c r="B62" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="9" t="s">
@@ -2383,8 +2380,8 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="22"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="9" t="s">
         <v>80</v>
       </c>
@@ -2393,10 +2390,13 @@
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="18"/>
+      <c r="I63" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="22"/>
-      <c r="B64" s="28"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="9" t="s">
         <v>81</v>
       </c>
@@ -2407,8 +2407,8 @@
       <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="22"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="9" t="s">
         <v>82</v>
       </c>
@@ -2419,8 +2419,8 @@
       <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="22"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="9" t="s">
         <v>83</v>
       </c>
@@ -2431,8 +2431,8 @@
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="22"/>
-      <c r="B67" s="28"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="9" t="s">
         <v>84</v>
       </c>
@@ -2443,8 +2443,8 @@
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="22"/>
-      <c r="B68" s="28"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="9" t="s">
         <v>85</v>
       </c>
@@ -2455,8 +2455,8 @@
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="22"/>
-      <c r="B69" s="28"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="9" t="s">
         <v>86</v>
       </c>
@@ -2467,8 +2467,8 @@
       <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="22"/>
-      <c r="B70" s="28"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="9" t="s">
         <v>87</v>
       </c>
@@ -2479,8 +2479,8 @@
       <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="22"/>
-      <c r="B71" s="28"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="9" t="s">
         <v>88</v>
       </c>
@@ -2491,8 +2491,8 @@
       <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="22"/>
-      <c r="B72" s="29"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="9" t="s">
         <v>89</v>
       </c>
@@ -2503,8 +2503,8 @@
       <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="22"/>
-      <c r="B73" s="27" t="s">
+      <c r="A73" s="28"/>
+      <c r="B73" s="24" t="s">
         <v>90</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -2517,8 +2517,8 @@
       <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="22"/>
-      <c r="B74" s="28"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="9" t="s">
         <v>92</v>
       </c>
@@ -2529,8 +2529,8 @@
       <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="22"/>
-      <c r="B75" s="28"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" s="9" t="s">
         <v>93</v>
       </c>
@@ -2541,8 +2541,8 @@
       <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="9" t="s">
         <v>94</v>
       </c>
@@ -2553,8 +2553,8 @@
       <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="22"/>
-      <c r="B77" s="28"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="9" t="s">
         <v>95</v>
       </c>
@@ -2565,8 +2565,8 @@
       <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="22"/>
-      <c r="B78" s="28"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="9" t="s">
         <v>96</v>
       </c>
@@ -2577,8 +2577,8 @@
       <c r="F78" s="18"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="22"/>
-      <c r="B79" s="28"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="9" t="s">
         <v>97</v>
       </c>
@@ -2589,8 +2589,8 @@
       <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="22"/>
-      <c r="B80" s="29"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="9" t="s">
         <v>98</v>
       </c>
@@ -2601,8 +2601,8 @@
       <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="22"/>
-      <c r="B81" s="27" t="s">
+      <c r="A81" s="28"/>
+      <c r="B81" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C81" s="9" t="s">
@@ -2615,8 +2615,8 @@
       <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="22"/>
-      <c r="B82" s="28"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="9" t="s">
         <v>101</v>
       </c>
@@ -2627,8 +2627,8 @@
       <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="22"/>
-      <c r="B83" s="28"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="9" t="s">
         <v>102</v>
       </c>
@@ -2639,8 +2639,8 @@
       <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="22"/>
-      <c r="B84" s="28"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="9" t="s">
         <v>103</v>
       </c>
@@ -2651,8 +2651,8 @@
       <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="22"/>
-      <c r="B85" s="28"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="9" t="s">
         <v>104</v>
       </c>
@@ -2663,8 +2663,8 @@
       <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="22"/>
-      <c r="B86" s="28"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="9" t="s">
         <v>105</v>
       </c>
@@ -2675,8 +2675,8 @@
       <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="22"/>
-      <c r="B87" s="28"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="9" t="s">
         <v>106</v>
       </c>
@@ -2689,8 +2689,8 @@
       <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="22"/>
-      <c r="B88" s="28"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="9" t="s">
         <v>107</v>
       </c>
@@ -2701,8 +2701,8 @@
       <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="22"/>
-      <c r="B89" s="28"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" s="9" t="s">
         <v>108</v>
       </c>
@@ -2713,8 +2713,8 @@
       <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="22"/>
-      <c r="B90" s="29"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="9" t="s">
         <v>109</v>
       </c>
@@ -2725,8 +2725,8 @@
       <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="22"/>
-      <c r="B91" s="27" t="s">
+      <c r="A91" s="28"/>
+      <c r="B91" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C91" s="9" t="s">
@@ -2741,8 +2741,8 @@
       <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="22"/>
-      <c r="B92" s="28"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="25"/>
       <c r="C92" s="9" t="s">
         <v>112</v>
       </c>
@@ -2753,8 +2753,8 @@
       <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="22"/>
-      <c r="B93" s="28"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="9" t="s">
         <v>113</v>
       </c>
@@ -2765,8 +2765,8 @@
       <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="22"/>
-      <c r="B94" s="28"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="25"/>
       <c r="C94" s="9" t="s">
         <v>114</v>
       </c>
@@ -2777,8 +2777,8 @@
       <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="22"/>
-      <c r="B95" s="28"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="25"/>
       <c r="C95" s="9" t="s">
         <v>115</v>
       </c>
@@ -2789,8 +2789,8 @@
       <c r="F95" s="18"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="22"/>
-      <c r="B96" s="28"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="25"/>
       <c r="C96" s="9" t="s">
         <v>116</v>
       </c>
@@ -2801,8 +2801,8 @@
       <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="22"/>
-      <c r="B97" s="28"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="9" t="s">
         <v>117</v>
       </c>
@@ -2813,8 +2813,8 @@
       <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="22"/>
-      <c r="B98" s="28"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="25"/>
       <c r="C98" s="9" t="s">
         <v>118</v>
       </c>
@@ -2825,8 +2825,8 @@
       <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="22"/>
-      <c r="B99" s="29"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="9" t="s">
         <v>119</v>
       </c>
@@ -2837,8 +2837,8 @@
       <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="22"/>
-      <c r="B100" s="27" t="s">
+      <c r="A100" s="28"/>
+      <c r="B100" s="24" t="s">
         <v>120</v>
       </c>
       <c r="C100" s="9" t="s">
@@ -2851,8 +2851,8 @@
       <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="25"/>
       <c r="C101" s="9" t="s">
         <v>122</v>
       </c>
@@ -2863,8 +2863,8 @@
       <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="22"/>
-      <c r="B102" s="28"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="9" t="s">
         <v>123</v>
       </c>
@@ -2875,8 +2875,8 @@
       <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="22"/>
-      <c r="B103" s="28"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="9" t="s">
         <v>124</v>
       </c>
@@ -2887,8 +2887,8 @@
       <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="22"/>
-      <c r="B104" s="28"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="9" t="s">
         <v>125</v>
       </c>
@@ -2899,8 +2899,8 @@
       <c r="F104" s="18"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="22"/>
-      <c r="B105" s="28"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="9" t="s">
         <v>126</v>
       </c>
@@ -2911,8 +2911,8 @@
       <c r="F105" s="18"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="22"/>
-      <c r="B106" s="28"/>
+      <c r="A106" s="28"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="9" t="s">
         <v>127</v>
       </c>
@@ -2923,8 +2923,8 @@
       <c r="F106" s="18"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="22"/>
-      <c r="B107" s="28"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="9" t="s">
         <v>128</v>
       </c>
@@ -2935,8 +2935,8 @@
       <c r="F107" s="18"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="23"/>
-      <c r="B108" s="29"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="26"/>
       <c r="C108" s="9" t="s">
         <v>129</v>
       </c>
@@ -2947,10 +2947,10 @@
       <c r="F108" s="18"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="21">
+      <c r="A109" s="27">
         <v>2</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C109" s="9" t="s">
@@ -2963,8 +2963,8 @@
       <c r="F109" s="18"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="22"/>
-      <c r="B110" s="31"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="9" t="s">
         <v>132</v>
       </c>
@@ -2975,8 +2975,8 @@
       <c r="F110" s="18"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="22"/>
-      <c r="B111" s="31"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="9" t="s">
         <v>133</v>
       </c>
@@ -2987,8 +2987,8 @@
       <c r="F111" s="18"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="22"/>
-      <c r="B112" s="31"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="9" t="s">
         <v>134</v>
       </c>
@@ -2999,8 +2999,8 @@
       <c r="F112" s="18"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="22"/>
-      <c r="B113" s="31"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="9" t="s">
         <v>135</v>
       </c>
@@ -3011,8 +3011,8 @@
       <c r="F113" s="18"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="22"/>
-      <c r="B114" s="31"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="9" t="s">
         <v>136</v>
       </c>
@@ -3023,8 +3023,8 @@
       <c r="F114" s="18"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="22"/>
-      <c r="B115" s="31"/>
+      <c r="A115" s="28"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="9" t="s">
         <v>137</v>
       </c>
@@ -3035,8 +3035,8 @@
       <c r="F115" s="18"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="22"/>
-      <c r="B116" s="31"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="9" t="s">
         <v>138</v>
       </c>
@@ -3047,8 +3047,8 @@
       <c r="F116" s="18"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="22"/>
-      <c r="B117" s="31"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="9" t="s">
         <v>139</v>
       </c>
@@ -3059,8 +3059,8 @@
       <c r="F117" s="18"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="22"/>
-      <c r="B118" s="31"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="9" t="s">
         <v>140</v>
       </c>
@@ -3071,8 +3071,8 @@
       <c r="F118" s="18"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="22"/>
-      <c r="B119" s="31"/>
+      <c r="A119" s="28"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="9" t="s">
         <v>141</v>
       </c>
@@ -3083,8 +3083,8 @@
       <c r="F119" s="18"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="22"/>
-      <c r="B120" s="31"/>
+      <c r="A120" s="28"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="9" t="s">
         <v>142</v>
       </c>
@@ -3095,8 +3095,8 @@
       <c r="F120" s="18"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="22"/>
-      <c r="B121" s="31"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="9" t="s">
         <v>83</v>
       </c>
@@ -3107,8 +3107,8 @@
       <c r="F121" s="18"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="22"/>
-      <c r="B122" s="31"/>
+      <c r="A122" s="28"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="9" t="s">
         <v>143</v>
       </c>
@@ -3119,8 +3119,8 @@
       <c r="F122" s="18"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="23"/>
-      <c r="B123" s="32"/>
+      <c r="A123" s="29"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
         <v>144</v>
       </c>
@@ -3131,7 +3131,7 @@
       <c r="F123" s="18"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="21">
+      <c r="A124" s="27">
         <v>3</v>
       </c>
       <c r="B124" s="17" t="s">
@@ -3143,7 +3143,7 @@
       <c r="F124" s="18"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="22"/>
+      <c r="A125" s="28"/>
       <c r="B125" s="10" t="s">
         <v>146</v>
       </c>
@@ -3153,8 +3153,8 @@
       <c r="F125" s="18"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="22"/>
-      <c r="B126" s="27" t="s">
+      <c r="A126" s="28"/>
+      <c r="B126" s="24" t="s">
         <v>147</v>
       </c>
       <c r="C126" s="9" t="s">
@@ -3167,8 +3167,8 @@
       <c r="F126" s="18"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="22"/>
-      <c r="B127" s="28"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="9" t="s">
         <v>149</v>
       </c>
@@ -3179,8 +3179,8 @@
       <c r="F127" s="18"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="22"/>
-      <c r="B128" s="28"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="9" t="s">
         <v>150</v>
       </c>
@@ -3191,8 +3191,8 @@
       <c r="F128" s="18"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="22"/>
-      <c r="B129" s="28"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="9" t="s">
         <v>151</v>
       </c>
@@ -3203,8 +3203,8 @@
       <c r="F129" s="18"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="22"/>
-      <c r="B130" s="28"/>
+      <c r="A130" s="28"/>
+      <c r="B130" s="25"/>
       <c r="C130" s="9" t="s">
         <v>152</v>
       </c>
@@ -3215,8 +3215,8 @@
       <c r="F130" s="18"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="22"/>
-      <c r="B131" s="28"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="25"/>
       <c r="C131" s="9" t="s">
         <v>153</v>
       </c>
@@ -3227,8 +3227,8 @@
       <c r="F131" s="18"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="22"/>
-      <c r="B132" s="28"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="25"/>
       <c r="C132" s="9" t="s">
         <v>154</v>
       </c>
@@ -3239,8 +3239,8 @@
       <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="22"/>
-      <c r="B133" s="29"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="26"/>
       <c r="C133" s="9" t="s">
         <v>155</v>
       </c>
@@ -3251,8 +3251,8 @@
       <c r="F133" s="18"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="22"/>
-      <c r="B134" s="27" t="s">
+      <c r="A134" s="28"/>
+      <c r="B134" s="24" t="s">
         <v>156</v>
       </c>
       <c r="C134" s="9" t="s">
@@ -3265,8 +3265,8 @@
       <c r="F134" s="18"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="22"/>
-      <c r="B135" s="28"/>
+      <c r="A135" s="28"/>
+      <c r="B135" s="25"/>
       <c r="C135" s="9" t="s">
         <v>158</v>
       </c>
@@ -3277,8 +3277,8 @@
       <c r="F135" s="18"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="22"/>
-      <c r="B136" s="28"/>
+      <c r="A136" s="28"/>
+      <c r="B136" s="25"/>
       <c r="C136" s="9" t="s">
         <v>159</v>
       </c>
@@ -3289,8 +3289,8 @@
       <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" ht="30">
-      <c r="A137" s="22"/>
-      <c r="B137" s="29"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="26"/>
       <c r="C137" s="9" t="s">
         <v>160</v>
       </c>
@@ -3301,8 +3301,8 @@
       <c r="F137" s="18"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="22"/>
-      <c r="B138" s="27" t="s">
+      <c r="A138" s="28"/>
+      <c r="B138" s="24" t="s">
         <v>161</v>
       </c>
       <c r="C138" s="9" t="s">
@@ -3315,8 +3315,8 @@
       <c r="F138" s="18"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="22"/>
-      <c r="B139" s="28"/>
+      <c r="A139" s="28"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="9" t="s">
         <v>163</v>
       </c>
@@ -3327,8 +3327,8 @@
       <c r="F139" s="18"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="22"/>
-      <c r="B140" s="28"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="9" t="s">
         <v>164</v>
       </c>
@@ -3339,8 +3339,8 @@
       <c r="F140" s="18"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="22"/>
-      <c r="B141" s="28"/>
+      <c r="A141" s="28"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="9" t="s">
         <v>161</v>
       </c>
@@ -3351,8 +3351,8 @@
       <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="22"/>
-      <c r="B142" s="28"/>
+      <c r="A142" s="28"/>
+      <c r="B142" s="25"/>
       <c r="C142" s="9" t="s">
         <v>165</v>
       </c>
@@ -3363,8 +3363,8 @@
       <c r="F142" s="18"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="22"/>
-      <c r="B143" s="28"/>
+      <c r="A143" s="28"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="9" t="s">
         <v>166</v>
       </c>
@@ -3375,8 +3375,8 @@
       <c r="F143" s="18"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="23"/>
-      <c r="B144" s="29"/>
+      <c r="A144" s="29"/>
+      <c r="B144" s="26"/>
       <c r="C144" s="9" t="s">
         <v>167</v>
       </c>
@@ -3387,10 +3387,10 @@
       <c r="F144" s="18"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="21">
+      <c r="A145" s="27">
         <v>4</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="21" t="s">
         <v>168</v>
       </c>
       <c r="C145" s="9" t="s">
@@ -3403,8 +3403,8 @@
       <c r="F145" s="18"/>
     </row>
     <row r="146" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A146" s="22"/>
-      <c r="B146" s="31"/>
+      <c r="A146" s="28"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="9" t="s">
         <v>170</v>
       </c>
@@ -3415,8 +3415,8 @@
       <c r="F146" s="18"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="22"/>
-      <c r="B147" s="31"/>
+      <c r="A147" s="28"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="9" t="s">
         <v>171</v>
       </c>
@@ -3427,8 +3427,8 @@
       <c r="F147" s="18"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="22"/>
-      <c r="B148" s="31"/>
+      <c r="A148" s="28"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="9" t="s">
         <v>172</v>
       </c>
@@ -3439,8 +3439,8 @@
       <c r="F148" s="18"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="22"/>
-      <c r="B149" s="31"/>
+      <c r="A149" s="28"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="9" t="s">
         <v>173</v>
       </c>
@@ -3451,8 +3451,8 @@
       <c r="F149" s="18"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="22"/>
-      <c r="B150" s="31"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="9" t="s">
         <v>174</v>
       </c>
@@ -3463,8 +3463,8 @@
       <c r="F150" s="18"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="22"/>
-      <c r="B151" s="31"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="9" t="s">
         <v>175</v>
       </c>
@@ -3475,8 +3475,8 @@
       <c r="F151" s="18"/>
     </row>
     <row r="152" spans="1:6" ht="30">
-      <c r="A152" s="22"/>
-      <c r="B152" s="31"/>
+      <c r="A152" s="28"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="9" t="s">
         <v>176</v>
       </c>
@@ -3487,8 +3487,8 @@
       <c r="F152" s="18"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="22"/>
-      <c r="B153" s="31"/>
+      <c r="A153" s="28"/>
+      <c r="B153" s="22"/>
       <c r="C153" s="9" t="s">
         <v>177</v>
       </c>
@@ -3499,8 +3499,8 @@
       <c r="F153" s="18"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="22"/>
-      <c r="B154" s="31"/>
+      <c r="A154" s="28"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="9" t="s">
         <v>178</v>
       </c>
@@ -3511,8 +3511,8 @@
       <c r="F154" s="18"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="22"/>
-      <c r="B155" s="31"/>
+      <c r="A155" s="28"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="9" t="s">
         <v>179</v>
       </c>
@@ -3523,8 +3523,8 @@
       <c r="F155" s="18"/>
     </row>
     <row r="156" spans="1:6" ht="30">
-      <c r="A156" s="22"/>
-      <c r="B156" s="31"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="9" t="s">
         <v>180</v>
       </c>
@@ -3535,8 +3535,8 @@
       <c r="F156" s="18"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="22"/>
-      <c r="B157" s="31"/>
+      <c r="A157" s="28"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="9" t="s">
         <v>181</v>
       </c>
@@ -3547,8 +3547,8 @@
       <c r="F157" s="18"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="22"/>
-      <c r="B158" s="31"/>
+      <c r="A158" s="28"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="9" t="s">
         <v>182</v>
       </c>
@@ -3559,8 +3559,8 @@
       <c r="F158" s="18"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="22"/>
-      <c r="B159" s="31"/>
+      <c r="A159" s="28"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="9" t="s">
         <v>183</v>
       </c>
@@ -3571,8 +3571,8 @@
       <c r="F159" s="18"/>
     </row>
     <row r="160" spans="1:6" ht="30">
-      <c r="A160" s="22"/>
-      <c r="B160" s="31"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="9" t="s">
         <v>184</v>
       </c>
@@ -3583,8 +3583,8 @@
       <c r="F160" s="18"/>
     </row>
     <row r="161" spans="1:6" ht="30">
-      <c r="A161" s="22"/>
-      <c r="B161" s="31"/>
+      <c r="A161" s="28"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="9" t="s">
         <v>185</v>
       </c>
@@ -3595,8 +3595,8 @@
       <c r="F161" s="18"/>
     </row>
     <row r="162" spans="1:6" ht="45">
-      <c r="A162" s="22"/>
-      <c r="B162" s="31"/>
+      <c r="A162" s="28"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="9" t="s">
         <v>186</v>
       </c>
@@ -3607,8 +3607,8 @@
       <c r="F162" s="18"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="22"/>
-      <c r="B163" s="31"/>
+      <c r="A163" s="28"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="9" t="s">
         <v>187</v>
       </c>
@@ -3619,8 +3619,8 @@
       <c r="F163" s="18"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="22"/>
-      <c r="B164" s="31"/>
+      <c r="A164" s="28"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="9" t="s">
         <v>188</v>
       </c>
@@ -3631,8 +3631,8 @@
       <c r="F164" s="18"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="22"/>
-      <c r="B165" s="31"/>
+      <c r="A165" s="28"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="9" t="s">
         <v>189</v>
       </c>
@@ -3643,8 +3643,8 @@
       <c r="F165" s="18"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="22"/>
-      <c r="B166" s="31"/>
+      <c r="A166" s="28"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="9" t="s">
         <v>190</v>
       </c>
@@ -3655,8 +3655,8 @@
       <c r="F166" s="18"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="22"/>
-      <c r="B167" s="31"/>
+      <c r="A167" s="28"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="9" t="s">
         <v>191</v>
       </c>
@@ -3667,8 +3667,8 @@
       <c r="F167" s="18"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="22"/>
-      <c r="B168" s="31"/>
+      <c r="A168" s="28"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="9" t="s">
         <v>192</v>
       </c>
@@ -3679,8 +3679,8 @@
       <c r="F168" s="18"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="22"/>
-      <c r="B169" s="31"/>
+      <c r="A169" s="28"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="9" t="s">
         <v>193</v>
       </c>
@@ -3691,8 +3691,8 @@
       <c r="F169" s="18"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="23"/>
-      <c r="B170" s="32"/>
+      <c r="A170" s="29"/>
+      <c r="B170" s="23"/>
       <c r="C170" s="9" t="s">
         <v>194</v>
       </c>
@@ -3703,10 +3703,10 @@
       <c r="F170" s="18"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="21">
+      <c r="A171" s="27">
         <v>5</v>
       </c>
-      <c r="B171" s="30" t="s">
+      <c r="B171" s="21" t="s">
         <v>195</v>
       </c>
       <c r="C171" s="9" t="s">
@@ -3719,8 +3719,8 @@
       <c r="F171" s="18"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="22"/>
-      <c r="B172" s="31"/>
+      <c r="A172" s="28"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="9" t="s">
         <v>197</v>
       </c>
@@ -3731,8 +3731,8 @@
       <c r="F172" s="18"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="22"/>
-      <c r="B173" s="31"/>
+      <c r="A173" s="28"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="9" t="s">
         <v>198</v>
       </c>
@@ -3743,8 +3743,8 @@
       <c r="F173" s="18"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="22"/>
-      <c r="B174" s="31"/>
+      <c r="A174" s="28"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="9" t="s">
         <v>199</v>
       </c>
@@ -3755,8 +3755,8 @@
       <c r="F174" s="18"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="22"/>
-      <c r="B175" s="31"/>
+      <c r="A175" s="28"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="9" t="s">
         <v>200</v>
       </c>
@@ -3767,8 +3767,8 @@
       <c r="F175" s="18"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="22"/>
-      <c r="B176" s="31"/>
+      <c r="A176" s="28"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="9" t="s">
         <v>201</v>
       </c>
@@ -3779,8 +3779,8 @@
       <c r="F176" s="18"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="22"/>
-      <c r="B177" s="31"/>
+      <c r="A177" s="28"/>
+      <c r="B177" s="22"/>
       <c r="C177" s="9" t="s">
         <v>202</v>
       </c>
@@ -3791,8 +3791,8 @@
       <c r="F177" s="18"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="22"/>
-      <c r="B178" s="31"/>
+      <c r="A178" s="28"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="9" t="s">
         <v>203</v>
       </c>
@@ -3803,8 +3803,8 @@
       <c r="F178" s="18"/>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="22"/>
-      <c r="B179" s="31"/>
+      <c r="A179" s="28"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="9" t="s">
         <v>204</v>
       </c>
@@ -3815,8 +3815,8 @@
       <c r="F179" s="18"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="22"/>
-      <c r="B180" s="31"/>
+      <c r="A180" s="28"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="9" t="s">
         <v>205</v>
       </c>
@@ -3827,8 +3827,8 @@
       <c r="F180" s="18"/>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="22"/>
-      <c r="B181" s="31"/>
+      <c r="A181" s="28"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="9" t="s">
         <v>206</v>
       </c>
@@ -3839,8 +3839,8 @@
       <c r="F181" s="18"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="22"/>
-      <c r="B182" s="31"/>
+      <c r="A182" s="28"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="9" t="s">
         <v>207</v>
       </c>
@@ -3851,8 +3851,8 @@
       <c r="F182" s="18"/>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="22"/>
-      <c r="B183" s="31"/>
+      <c r="A183" s="28"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="9" t="s">
         <v>208</v>
       </c>
@@ -3863,8 +3863,8 @@
       <c r="F183" s="18"/>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="22"/>
-      <c r="B184" s="31"/>
+      <c r="A184" s="28"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="9" t="s">
         <v>209</v>
       </c>
@@ -3875,8 +3875,8 @@
       <c r="F184" s="18"/>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="22"/>
-      <c r="B185" s="31"/>
+      <c r="A185" s="28"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="9" t="s">
         <v>210</v>
       </c>
@@ -3887,8 +3887,8 @@
       <c r="F185" s="18"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="22"/>
-      <c r="B186" s="31"/>
+      <c r="A186" s="28"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="9" t="s">
         <v>211</v>
       </c>
@@ -3899,8 +3899,8 @@
       <c r="F186" s="18"/>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="22"/>
-      <c r="B187" s="31"/>
+      <c r="A187" s="28"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="9" t="s">
         <v>212</v>
       </c>
@@ -3911,8 +3911,8 @@
       <c r="F187" s="18"/>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="22"/>
-      <c r="B188" s="31"/>
+      <c r="A188" s="28"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="9" t="s">
         <v>213</v>
       </c>
@@ -3923,8 +3923,8 @@
       <c r="F188" s="18"/>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="22"/>
-      <c r="B189" s="31"/>
+      <c r="A189" s="28"/>
+      <c r="B189" s="22"/>
       <c r="C189" s="9" t="s">
         <v>214</v>
       </c>
@@ -3935,8 +3935,8 @@
       <c r="F189" s="18"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="22"/>
-      <c r="B190" s="31"/>
+      <c r="A190" s="28"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="9" t="s">
         <v>215</v>
       </c>
@@ -3947,8 +3947,8 @@
       <c r="F190" s="18"/>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="22"/>
-      <c r="B191" s="31"/>
+      <c r="A191" s="28"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="9" t="s">
         <v>216</v>
       </c>
@@ -3959,8 +3959,8 @@
       <c r="F191" s="18"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="22"/>
-      <c r="B192" s="31"/>
+      <c r="A192" s="28"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="9" t="s">
         <v>217</v>
       </c>
@@ -3971,8 +3971,8 @@
       <c r="F192" s="18"/>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="22"/>
-      <c r="B193" s="31"/>
+      <c r="A193" s="28"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="9" t="s">
         <v>218</v>
       </c>
@@ -3983,8 +3983,8 @@
       <c r="F193" s="18"/>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="22"/>
-      <c r="B194" s="31"/>
+      <c r="A194" s="28"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="9" t="s">
         <v>219</v>
       </c>
@@ -3995,8 +3995,8 @@
       <c r="F194" s="18"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="22"/>
-      <c r="B195" s="31"/>
+      <c r="A195" s="28"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="9" t="s">
         <v>220</v>
       </c>
@@ -4007,8 +4007,8 @@
       <c r="F195" s="18"/>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="22"/>
-      <c r="B196" s="31"/>
+      <c r="A196" s="28"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="9" t="s">
         <v>221</v>
       </c>
@@ -4019,8 +4019,8 @@
       <c r="F196" s="18"/>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="22"/>
-      <c r="B197" s="31"/>
+      <c r="A197" s="28"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="9" t="s">
         <v>222</v>
       </c>
@@ -4031,8 +4031,8 @@
       <c r="F197" s="18"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="23"/>
-      <c r="B198" s="32"/>
+      <c r="A198" s="29"/>
+      <c r="B198" s="23"/>
       <c r="C198" s="9" t="s">
         <v>223</v>
       </c>
@@ -4043,10 +4043,10 @@
       <c r="F198" s="18"/>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="21">
+      <c r="A199" s="27">
         <v>6</v>
       </c>
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="21" t="s">
         <v>224</v>
       </c>
       <c r="C199" s="9" t="s">
@@ -4059,8 +4059,8 @@
       <c r="F199" s="18"/>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="22"/>
-      <c r="B200" s="31"/>
+      <c r="A200" s="28"/>
+      <c r="B200" s="22"/>
       <c r="C200" s="9" t="s">
         <v>226</v>
       </c>
@@ -4071,8 +4071,8 @@
       <c r="F200" s="18"/>
     </row>
     <row r="201" spans="1:6" ht="30">
-      <c r="A201" s="22"/>
-      <c r="B201" s="31"/>
+      <c r="A201" s="28"/>
+      <c r="B201" s="22"/>
       <c r="C201" s="9" t="s">
         <v>227</v>
       </c>
@@ -4083,8 +4083,8 @@
       <c r="F201" s="18"/>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="22"/>
-      <c r="B202" s="31"/>
+      <c r="A202" s="28"/>
+      <c r="B202" s="22"/>
       <c r="C202" s="9" t="s">
         <v>228</v>
       </c>
@@ -4095,8 +4095,8 @@
       <c r="F202" s="18"/>
     </row>
     <row r="203" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A203" s="22"/>
-      <c r="B203" s="31"/>
+      <c r="A203" s="28"/>
+      <c r="B203" s="22"/>
       <c r="C203" s="9" t="s">
         <v>229</v>
       </c>
@@ -4107,8 +4107,8 @@
       <c r="F203" s="18"/>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="22"/>
-      <c r="B204" s="31"/>
+      <c r="A204" s="28"/>
+      <c r="B204" s="22"/>
       <c r="C204" s="9" t="s">
         <v>230</v>
       </c>
@@ -4119,8 +4119,8 @@
       <c r="F204" s="18"/>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="22"/>
-      <c r="B205" s="31"/>
+      <c r="A205" s="28"/>
+      <c r="B205" s="22"/>
       <c r="C205" s="9" t="s">
         <v>231</v>
       </c>
@@ -4131,8 +4131,8 @@
       <c r="F205" s="18"/>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="22"/>
-      <c r="B206" s="31"/>
+      <c r="A206" s="28"/>
+      <c r="B206" s="22"/>
       <c r="C206" s="9" t="s">
         <v>232</v>
       </c>
@@ -4143,8 +4143,8 @@
       <c r="F206" s="18"/>
     </row>
     <row r="207" spans="1:6" ht="30">
-      <c r="A207" s="22"/>
-      <c r="B207" s="31"/>
+      <c r="A207" s="28"/>
+      <c r="B207" s="22"/>
       <c r="C207" s="9" t="s">
         <v>233</v>
       </c>
@@ -4155,8 +4155,8 @@
       <c r="F207" s="18"/>
     </row>
     <row r="208" spans="1:6" ht="30">
-      <c r="A208" s="22"/>
-      <c r="B208" s="31"/>
+      <c r="A208" s="28"/>
+      <c r="B208" s="22"/>
       <c r="C208" s="9" t="s">
         <v>234</v>
       </c>
@@ -4167,8 +4167,8 @@
       <c r="F208" s="18"/>
     </row>
     <row r="209" spans="1:6" ht="30">
-      <c r="A209" s="22"/>
-      <c r="B209" s="31"/>
+      <c r="A209" s="28"/>
+      <c r="B209" s="22"/>
       <c r="C209" s="9" t="s">
         <v>235</v>
       </c>
@@ -4179,8 +4179,8 @@
       <c r="F209" s="18"/>
     </row>
     <row r="210" spans="1:6" ht="30">
-      <c r="A210" s="22"/>
-      <c r="B210" s="31"/>
+      <c r="A210" s="28"/>
+      <c r="B210" s="22"/>
       <c r="C210" s="9" t="s">
         <v>236</v>
       </c>
@@ -4191,8 +4191,8 @@
       <c r="F210" s="18"/>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="22"/>
-      <c r="B211" s="31"/>
+      <c r="A211" s="28"/>
+      <c r="B211" s="22"/>
       <c r="C211" s="9" t="s">
         <v>237</v>
       </c>
@@ -4203,8 +4203,8 @@
       <c r="F211" s="18"/>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="22"/>
-      <c r="B212" s="31"/>
+      <c r="A212" s="28"/>
+      <c r="B212" s="22"/>
       <c r="C212" s="9" t="s">
         <v>238</v>
       </c>
@@ -4215,8 +4215,8 @@
       <c r="F212" s="18"/>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="22"/>
-      <c r="B213" s="31"/>
+      <c r="A213" s="28"/>
+      <c r="B213" s="22"/>
       <c r="C213" s="9" t="s">
         <v>239</v>
       </c>
@@ -4227,8 +4227,8 @@
       <c r="F213" s="18"/>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="22"/>
-      <c r="B214" s="31"/>
+      <c r="A214" s="28"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="9" t="s">
         <v>240</v>
       </c>
@@ -4239,8 +4239,8 @@
       <c r="F214" s="18"/>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="22"/>
-      <c r="B215" s="31"/>
+      <c r="A215" s="28"/>
+      <c r="B215" s="22"/>
       <c r="C215" s="9" t="s">
         <v>241</v>
       </c>
@@ -4251,8 +4251,8 @@
       <c r="F215" s="18"/>
     </row>
     <row r="216" spans="1:6" ht="30">
-      <c r="A216" s="22"/>
-      <c r="B216" s="31"/>
+      <c r="A216" s="28"/>
+      <c r="B216" s="22"/>
       <c r="C216" s="9" t="s">
         <v>242</v>
       </c>
@@ -4263,8 +4263,8 @@
       <c r="F216" s="18"/>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="23"/>
-      <c r="B217" s="32"/>
+      <c r="A217" s="29"/>
+      <c r="B217" s="23"/>
       <c r="C217" s="9" t="s">
         <v>243</v>
       </c>
@@ -4275,10 +4275,10 @@
       <c r="F217" s="18"/>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="21">
+      <c r="A218" s="27">
         <v>7</v>
       </c>
-      <c r="B218" s="30" t="s">
+      <c r="B218" s="21" t="s">
         <v>244</v>
       </c>
       <c r="C218" s="9" t="s">
@@ -4291,8 +4291,8 @@
       <c r="F218" s="18"/>
     </row>
     <row r="219" spans="1:6" ht="30">
-      <c r="A219" s="22"/>
-      <c r="B219" s="31"/>
+      <c r="A219" s="28"/>
+      <c r="B219" s="22"/>
       <c r="C219" s="9" t="s">
         <v>246</v>
       </c>
@@ -4303,8 +4303,8 @@
       <c r="F219" s="18"/>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="22"/>
-      <c r="B220" s="31"/>
+      <c r="A220" s="28"/>
+      <c r="B220" s="22"/>
       <c r="C220" s="9" t="s">
         <v>247</v>
       </c>
@@ -4315,8 +4315,8 @@
       <c r="F220" s="18"/>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="22"/>
-      <c r="B221" s="31"/>
+      <c r="A221" s="28"/>
+      <c r="B221" s="22"/>
       <c r="C221" s="9" t="s">
         <v>248</v>
       </c>
@@ -4327,8 +4327,8 @@
       <c r="F221" s="18"/>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="22"/>
-      <c r="B222" s="31"/>
+      <c r="A222" s="28"/>
+      <c r="B222" s="22"/>
       <c r="C222" s="9" t="s">
         <v>249</v>
       </c>
@@ -4339,8 +4339,8 @@
       <c r="F222" s="18"/>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="22"/>
-      <c r="B223" s="31"/>
+      <c r="A223" s="28"/>
+      <c r="B223" s="22"/>
       <c r="C223" s="9" t="s">
         <v>250</v>
       </c>
@@ -4351,8 +4351,8 @@
       <c r="F223" s="18"/>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="22"/>
-      <c r="B224" s="31"/>
+      <c r="A224" s="28"/>
+      <c r="B224" s="22"/>
       <c r="C224" s="9" t="s">
         <v>251</v>
       </c>
@@ -4363,8 +4363,8 @@
       <c r="F224" s="18"/>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="22"/>
-      <c r="B225" s="31"/>
+      <c r="A225" s="28"/>
+      <c r="B225" s="22"/>
       <c r="C225" s="9" t="s">
         <v>252</v>
       </c>
@@ -4375,8 +4375,8 @@
       <c r="F225" s="18"/>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="22"/>
-      <c r="B226" s="31"/>
+      <c r="A226" s="28"/>
+      <c r="B226" s="22"/>
       <c r="C226" s="9" t="s">
         <v>253</v>
       </c>
@@ -4387,8 +4387,8 @@
       <c r="F226" s="18"/>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="22"/>
-      <c r="B227" s="31"/>
+      <c r="A227" s="28"/>
+      <c r="B227" s="22"/>
       <c r="C227" s="9" t="s">
         <v>254</v>
       </c>
@@ -4399,8 +4399,8 @@
       <c r="F227" s="18"/>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="22"/>
-      <c r="B228" s="31"/>
+      <c r="A228" s="28"/>
+      <c r="B228" s="22"/>
       <c r="C228" s="9" t="s">
         <v>107</v>
       </c>
@@ -4411,8 +4411,8 @@
       <c r="F228" s="18"/>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="22"/>
-      <c r="B229" s="31"/>
+      <c r="A229" s="28"/>
+      <c r="B229" s="22"/>
       <c r="C229" s="9" t="s">
         <v>255</v>
       </c>
@@ -4423,8 +4423,8 @@
       <c r="F229" s="18"/>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="22"/>
-      <c r="B230" s="31"/>
+      <c r="A230" s="28"/>
+      <c r="B230" s="22"/>
       <c r="C230" s="9" t="s">
         <v>256</v>
       </c>
@@ -4435,8 +4435,8 @@
       <c r="F230" s="18"/>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="22"/>
-      <c r="B231" s="31"/>
+      <c r="A231" s="28"/>
+      <c r="B231" s="22"/>
       <c r="C231" s="9" t="s">
         <v>257</v>
       </c>
@@ -4447,8 +4447,8 @@
       <c r="F231" s="18"/>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="22"/>
-      <c r="B232" s="31"/>
+      <c r="A232" s="28"/>
+      <c r="B232" s="22"/>
       <c r="C232" s="9" t="s">
         <v>258</v>
       </c>
@@ -4459,8 +4459,8 @@
       <c r="F232" s="18"/>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="22"/>
-      <c r="B233" s="31"/>
+      <c r="A233" s="28"/>
+      <c r="B233" s="22"/>
       <c r="C233" s="9" t="s">
         <v>259</v>
       </c>
@@ -4471,8 +4471,8 @@
       <c r="F233" s="18"/>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="23"/>
-      <c r="B234" s="32"/>
+      <c r="A234" s="29"/>
+      <c r="B234" s="23"/>
       <c r="C234" s="9" t="s">
         <v>260</v>
       </c>
@@ -4483,10 +4483,10 @@
       <c r="F234" s="18"/>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="21">
+      <c r="A235" s="27">
         <v>8</v>
       </c>
-      <c r="B235" s="30" t="s">
+      <c r="B235" s="21" t="s">
         <v>261</v>
       </c>
       <c r="C235" s="9" t="s">
@@ -4499,8 +4499,8 @@
       <c r="F235" s="18"/>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="22"/>
-      <c r="B236" s="31"/>
+      <c r="A236" s="28"/>
+      <c r="B236" s="22"/>
       <c r="C236" s="9" t="s">
         <v>263</v>
       </c>
@@ -4511,8 +4511,8 @@
       <c r="F236" s="18"/>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="22"/>
-      <c r="B237" s="31"/>
+      <c r="A237" s="28"/>
+      <c r="B237" s="22"/>
       <c r="C237" s="9" t="s">
         <v>264</v>
       </c>
@@ -4523,8 +4523,8 @@
       <c r="F237" s="18"/>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="23"/>
-      <c r="B238" s="32"/>
+      <c r="A238" s="29"/>
+      <c r="B238" s="23"/>
       <c r="C238" s="9" t="s">
         <v>265</v>
       </c>
@@ -4535,10 +4535,10 @@
       <c r="F238" s="18"/>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="21">
+      <c r="A239" s="27">
         <v>9</v>
       </c>
-      <c r="B239" s="30" t="s">
+      <c r="B239" s="21" t="s">
         <v>266</v>
       </c>
       <c r="C239" s="9" t="s">
@@ -4551,8 +4551,8 @@
       <c r="F239" s="18"/>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="22"/>
-      <c r="B240" s="31"/>
+      <c r="A240" s="28"/>
+      <c r="B240" s="22"/>
       <c r="C240" s="9" t="s">
         <v>268</v>
       </c>
@@ -4563,8 +4563,8 @@
       <c r="F240" s="18"/>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="22"/>
-      <c r="B241" s="31"/>
+      <c r="A241" s="28"/>
+      <c r="B241" s="22"/>
       <c r="C241" s="9" t="s">
         <v>269</v>
       </c>
@@ -4575,8 +4575,8 @@
       <c r="F241" s="18"/>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="22"/>
-      <c r="B242" s="31"/>
+      <c r="A242" s="28"/>
+      <c r="B242" s="22"/>
       <c r="C242" s="9" t="s">
         <v>270</v>
       </c>
@@ -4587,8 +4587,8 @@
       <c r="F242" s="18"/>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="22"/>
-      <c r="B243" s="31"/>
+      <c r="A243" s="28"/>
+      <c r="B243" s="22"/>
       <c r="C243" s="9" t="s">
         <v>271</v>
       </c>
@@ -4599,8 +4599,8 @@
       <c r="F243" s="18"/>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="23"/>
-      <c r="B244" s="32"/>
+      <c r="A244" s="29"/>
+      <c r="B244" s="23"/>
       <c r="C244" s="9" t="s">
         <v>272</v>
       </c>
@@ -4612,17 +4612,11 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B239:B244"/>
-    <mergeCell ref="B145:B170"/>
-    <mergeCell ref="B171:B198"/>
-    <mergeCell ref="B199:B217"/>
-    <mergeCell ref="B218:B234"/>
-    <mergeCell ref="B235:B238"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="B109:B123"/>
-    <mergeCell ref="B126:B133"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B138:B144"/>
+    <mergeCell ref="A2:A108"/>
+    <mergeCell ref="A109:A123"/>
+    <mergeCell ref="A124:A144"/>
+    <mergeCell ref="A145:A170"/>
+    <mergeCell ref="A171:A198"/>
     <mergeCell ref="A199:A217"/>
     <mergeCell ref="A218:A234"/>
     <mergeCell ref="A235:A238"/>
@@ -4639,24 +4633,30 @@
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="B81:B90"/>
     <mergeCell ref="B91:B99"/>
-    <mergeCell ref="A2:A108"/>
-    <mergeCell ref="A109:A123"/>
-    <mergeCell ref="A124:A144"/>
-    <mergeCell ref="A145:A170"/>
-    <mergeCell ref="A171:A198"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="B109:B123"/>
+    <mergeCell ref="B126:B133"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B138:B144"/>
+    <mergeCell ref="B239:B244"/>
+    <mergeCell ref="B145:B170"/>
+    <mergeCell ref="B171:B198"/>
+    <mergeCell ref="B199:B217"/>
+    <mergeCell ref="B218:B234"/>
+    <mergeCell ref="B235:B238"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Resource!$A$1:$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D123 D126:D244</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Status!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -4669,7 +4669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5124,7 +5124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
